--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="127">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
+    <t>sheet_name</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,15 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>ngDe</t>
+  </si>
+  <si>
     <t>20220303</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
+    <t>O.Hensby</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-03 15:34:24.885686</t>
+    <t>2022-03-03 16:23:11.827513</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +423,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,7 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -589,10 +597,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,7 +620,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -630,7 +638,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -648,7 +656,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -659,7 +667,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -670,7 +678,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -688,7 +696,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -706,7 +714,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -724,7 +732,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -742,7 +750,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -760,7 +768,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -778,7 +786,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1113,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1127,10 +1135,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1144,10 +1152,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1161,10 +1169,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1178,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1195,10 +1203,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1212,10 +1220,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1229,10 +1237,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1246,10 +1254,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1263,10 +1271,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1280,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1652,7 +1660,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -1739,7 +1747,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -2092,7 +2100,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -2179,7 +2187,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -2553,7 +2561,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -2640,7 +2648,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -2993,7 +3001,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -3080,7 +3088,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -3454,7 +3462,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -3541,7 +3549,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -3894,7 +3902,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -3981,7 +3989,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -4601,7 +4609,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -4954,7 +4962,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -5041,7 +5049,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -5502,7 +5510,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -5855,7 +5863,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -5942,7 +5950,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -6316,7 +6324,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -6403,7 +6411,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -6455,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
@@ -6507,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -6756,7 +6764,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -6843,7 +6851,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -7217,7 +7225,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -7304,7 +7312,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -7657,7 +7665,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -7744,7 +7752,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -8118,7 +8126,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -8205,7 +8213,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -8558,7 +8566,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -8645,7 +8653,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -9019,7 +9027,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -9106,7 +9114,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -9459,7 +9467,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -9546,7 +9554,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="127">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,12 +72,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
-    <t>20220303</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -111,7 +105,13 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>O.Hensby</t>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>20220304</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-03 16:23:11.827513</t>
+    <t>2022-03-04 17:31:00.947870</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,14 +423,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -493,7 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -597,10 +589,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,7 +612,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -638,7 +630,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -656,7 +648,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -667,7 +659,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -678,7 +670,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -696,7 +688,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -714,7 +706,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -732,7 +724,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -750,7 +742,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -768,7 +760,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -786,7 +778,7 @@
     <tableColumn id="8" name="Criterion 2 (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1115,10 +1107,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1129,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1146,13 +1138,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1163,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1180,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1197,13 +1189,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1214,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1231,13 +1223,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1248,13 +1240,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1265,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1282,10 +1274,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1660,7 +1652,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -1747,7 +1739,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -2100,7 +2092,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -2187,7 +2179,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -2561,7 +2553,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -2648,7 +2640,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -3001,7 +2993,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -3088,7 +3080,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -3462,7 +3454,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -3549,7 +3541,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -3902,7 +3894,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -3989,7 +3981,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -4609,7 +4601,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -4962,7 +4954,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -5049,7 +5041,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -5510,7 +5502,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -5863,7 +5855,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -5950,7 +5942,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -6324,7 +6316,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -6411,7 +6403,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -6463,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
@@ -6515,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -6764,7 +6756,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -6851,7 +6843,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -7225,7 +7217,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -7312,7 +7304,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -7665,7 +7657,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -7752,7 +7744,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -8126,7 +8118,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -8213,7 +8205,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -8566,7 +8558,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -8653,7 +8645,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>
@@ -9027,7 +9019,7 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>126</v>
@@ -9114,7 +9106,7 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
@@ -9467,7 +9459,7 @@
         <v>125</v>
       </c>
       <c r="G29">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -9554,7 +9546,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <v>8.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>126</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="127">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220308</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220308</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 14:45:59.839199</t>
+    <t>2022-03-08 14:52:45.801563</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -198,22 +198,115 @@
     <t>The percentage of occupied hours in a bedroom where the operative temperature exceeds the threshold (26 degrees celsius) between 10pm and 7am over the total annual occupied hours between 10pm and 7am.</t>
   </si>
   <si>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>Vulnerable Occupancy</t>
+  </si>
+  <si>
+    <t>Criterion A (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>Criterion B (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>TM59 (Pass/Fail)</t>
+  </si>
+  <si>
     <t>Room ID</t>
   </si>
   <si>
-    <t>Vulnerable Occupancy</t>
-  </si>
-  <si>
-    <t>Criterion A (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>Criterion B (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>TM59 (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>Room Name</t>
+    <t>1S000001</t>
+  </si>
+  <si>
+    <t>1S000002</t>
+  </si>
+  <si>
+    <t>1S000003</t>
+  </si>
+  <si>
+    <t>1S000004</t>
+  </si>
+  <si>
+    <t>1S000005</t>
+  </si>
+  <si>
+    <t>1S000006</t>
+  </si>
+  <si>
+    <t>1S000007</t>
+  </si>
+  <si>
+    <t>2N000001</t>
+  </si>
+  <si>
+    <t>2N000002</t>
+  </si>
+  <si>
+    <t>2N000003</t>
+  </si>
+  <si>
+    <t>2N000004</t>
+  </si>
+  <si>
+    <t>2N000005</t>
+  </si>
+  <si>
+    <t>2N000006</t>
+  </si>
+  <si>
+    <t>2N000007</t>
+  </si>
+  <si>
+    <t>2N000008</t>
+  </si>
+  <si>
+    <t>3R000001</t>
+  </si>
+  <si>
+    <t>3R000002</t>
+  </si>
+  <si>
+    <t>3R000003</t>
+  </si>
+  <si>
+    <t>3R000004</t>
+  </si>
+  <si>
+    <t>3R000005</t>
+  </si>
+  <si>
+    <t>3R000006</t>
+  </si>
+  <si>
+    <t>3R000007</t>
+  </si>
+  <si>
+    <t>3R000008</t>
+  </si>
+  <si>
+    <t>4T000001</t>
+  </si>
+  <si>
+    <t>4T000002</t>
+  </si>
+  <si>
+    <t>4T000003</t>
+  </si>
+  <si>
+    <t>4T000004</t>
+  </si>
+  <si>
+    <t>4T000005</t>
+  </si>
+  <si>
+    <t>4T000006</t>
+  </si>
+  <si>
+    <t>4T000007</t>
+  </si>
+  <si>
+    <t>4T000008</t>
   </si>
   <si>
     <t>A_01_XX_XX_ApartmentSW</t>
@@ -307,99 +400,6 @@
   </si>
   <si>
     <t>A_04_XX_XX_ApartmentN2</t>
-  </si>
-  <si>
-    <t>1S000001</t>
-  </si>
-  <si>
-    <t>1S000002</t>
-  </si>
-  <si>
-    <t>1S000003</t>
-  </si>
-  <si>
-    <t>1S000004</t>
-  </si>
-  <si>
-    <t>1S000005</t>
-  </si>
-  <si>
-    <t>1S000006</t>
-  </si>
-  <si>
-    <t>1S000007</t>
-  </si>
-  <si>
-    <t>2N000001</t>
-  </si>
-  <si>
-    <t>2N000002</t>
-  </si>
-  <si>
-    <t>2N000003</t>
-  </si>
-  <si>
-    <t>2N000004</t>
-  </si>
-  <si>
-    <t>2N000005</t>
-  </si>
-  <si>
-    <t>2N000006</t>
-  </si>
-  <si>
-    <t>2N000007</t>
-  </si>
-  <si>
-    <t>2N000008</t>
-  </si>
-  <si>
-    <t>3R000001</t>
-  </si>
-  <si>
-    <t>3R000002</t>
-  </si>
-  <si>
-    <t>3R000003</t>
-  </si>
-  <si>
-    <t>3R000004</t>
-  </si>
-  <si>
-    <t>3R000005</t>
-  </si>
-  <si>
-    <t>3R000006</t>
-  </si>
-  <si>
-    <t>3R000007</t>
-  </si>
-  <si>
-    <t>3R000008</t>
-  </si>
-  <si>
-    <t>4T000001</t>
-  </si>
-  <si>
-    <t>4T000002</t>
-  </si>
-  <si>
-    <t>4T000003</t>
-  </si>
-  <si>
-    <t>4T000004</t>
-  </si>
-  <si>
-    <t>4T000005</t>
-  </si>
-  <si>
-    <t>4T000006</t>
-  </si>
-  <si>
-    <t>4T000007</t>
-  </si>
-  <si>
-    <t>4T000008</t>
   </si>
   <si>
     <t>Pass</t>
@@ -589,10 +589,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,8 +602,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -619,8 +619,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -636,8 +636,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -675,8 +675,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -692,8 +692,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -709,8 +709,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -726,8 +726,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -743,8 +743,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -760,8 +760,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:H32" totalsRowShown="0">
   <autoFilter ref="A1:H32"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
@@ -1101,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1115,10 +1115,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1132,10 +1132,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1149,10 +1149,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1166,10 +1166,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1183,10 +1183,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1200,10 +1200,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1217,10 +1217,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1234,10 +1234,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1251,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1268,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>sheet_name</t>
   </si>
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -105,13 +105,13 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220308</t>
-  </si>
-  <si>
-    <t>/c/e</t>
+    <t>20220309</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 17:56:26.186343</t>
+    <t>2022-03-09 10:59:05.275989</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -596,9 +596,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,11 +611,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -629,11 +629,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -647,11 +647,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -687,11 +687,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -705,11 +705,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -723,11 +723,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,11 +741,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -759,11 +759,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -777,11 +777,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1325,19 +1325,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -1353,20 +1353,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -1382,11 +1382,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -1402,11 +1402,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -1422,20 +1422,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -1451,20 +1451,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -1480,20 +1480,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -1509,20 +1509,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -1538,20 +1538,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -1567,11 +1567,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -1587,20 +1587,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -1616,11 +1616,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -1636,20 +1636,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -1665,20 +1665,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -1694,20 +1694,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -1723,20 +1723,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -1752,20 +1752,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -1781,11 +1781,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -1801,20 +1801,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -1830,11 +1830,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1850,20 +1850,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.81</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>355</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -1879,20 +1879,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -1908,20 +1908,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -1937,20 +1937,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>354</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -1966,20 +1966,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -1995,11 +1995,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2015,20 +2015,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2044,11 +2044,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2064,20 +2064,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2093,20 +2093,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2122,20 +2122,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -2151,20 +2151,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -2202,19 +2202,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -2230,20 +2230,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -2259,11 +2259,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -2279,11 +2279,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -2299,20 +2299,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -2328,20 +2328,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -2357,20 +2357,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -2386,20 +2386,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -2415,20 +2415,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -2444,11 +2444,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -2464,20 +2464,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2493,11 +2493,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -2513,20 +2513,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -2542,20 +2542,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -2571,20 +2571,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -2600,20 +2600,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>320</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -2629,20 +2629,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -2658,11 +2658,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -2678,20 +2678,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -2707,11 +2707,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -2727,20 +2727,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -2756,20 +2756,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -2785,20 +2785,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -2814,20 +2814,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>354</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -2843,20 +2843,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2872,11 +2872,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2892,20 +2892,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2921,11 +2921,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2941,20 +2941,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2970,20 +2970,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2999,20 +2999,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3028,20 +3028,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -3079,19 +3079,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -3107,20 +3107,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -3136,11 +3136,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -3156,11 +3156,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -3176,20 +3176,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -3205,20 +3205,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -3234,20 +3234,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -3263,20 +3263,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>3.99</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>131</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -3292,20 +3292,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -3321,11 +3321,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -3341,20 +3341,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -3370,11 +3370,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -3390,20 +3390,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -3419,20 +3419,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -3448,20 +3448,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -3477,20 +3477,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>320</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -3506,20 +3506,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -3535,11 +3535,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -3555,20 +3555,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -3584,11 +3584,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -3604,20 +3604,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -3633,20 +3633,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.41</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>342</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -3662,20 +3662,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -3691,20 +3691,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.75</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>353</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -3720,20 +3720,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -3749,11 +3749,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3769,20 +3769,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -3798,11 +3798,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -3818,20 +3818,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -3847,20 +3847,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3876,20 +3876,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3905,20 +3905,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -4123,19 +4123,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -4151,20 +4151,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>2.48</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -4180,11 +4180,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3">
         <v>7.89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -4200,11 +4200,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4">
         <v>8.039999999999999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -4220,20 +4220,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -4249,20 +4249,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -4278,20 +4278,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -4307,20 +4307,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -4336,20 +4336,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
         <v>10.59</v>
       </c>
-      <c r="E9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -4365,11 +4365,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>26.04</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -4385,20 +4385,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
         <v>11.57</v>
       </c>
-      <c r="E11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -4414,11 +4414,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>26.4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -4434,20 +4434,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.859999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -4463,20 +4463,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
         <v>0.6</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>317</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -4492,20 +4492,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
         <v>0.14</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -4521,20 +4521,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -4550,20 +4550,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
         <v>12.94</v>
       </c>
-      <c r="E17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.37</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>505</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -4579,11 +4579,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>28.26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -4599,20 +4599,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
         <v>13.45</v>
       </c>
-      <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -4628,11 +4628,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>28.46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -4648,20 +4648,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
         <v>0.03</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -4677,20 +4677,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
         <v>1.58</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.5</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>345</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -4706,20 +4706,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
         <v>0.35</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -4735,20 +4735,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
         <v>0.03</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>358</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -4764,20 +4764,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25">
         <v>5.61</v>
       </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -4793,11 +4793,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26">
         <v>17.8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -4813,20 +4813,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27">
         <v>5.23</v>
       </c>
-      <c r="E27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -4842,11 +4842,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
         <v>17.75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -4862,20 +4862,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.31</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>273</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -4891,20 +4891,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -4920,20 +4920,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -4949,20 +4949,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>273</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5000,19 +5000,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5028,20 +5028,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.63</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5057,11 +5057,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>1.71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5077,11 +5077,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>1.76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5097,20 +5097,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -5126,20 +5126,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -5155,20 +5155,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -5184,20 +5184,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -5213,20 +5213,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
         <v>4.19</v>
       </c>
-      <c r="E9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -5242,11 +5242,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>12.57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -5262,20 +5262,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
         <v>3.92</v>
       </c>
-      <c r="E11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -5291,11 +5291,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>12.67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -5311,20 +5311,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.859999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -5340,20 +5340,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -5369,20 +5369,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.470000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>311</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -5398,20 +5398,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -5427,20 +5427,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
         <v>5.34</v>
       </c>
-      <c r="E17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -5456,11 +5456,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>15.74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -5476,20 +5476,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
         <v>5.15</v>
       </c>
-      <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5505,11 +5505,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>15.84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -5525,20 +5525,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -5554,20 +5554,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.47</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>344</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -5583,20 +5583,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -5612,20 +5612,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>358</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -5641,20 +5641,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>1.63</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -5670,11 +5670,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26">
         <v>5.73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -5690,20 +5690,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>1.14</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -5719,11 +5719,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
         <v>5.63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -5739,20 +5739,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -5768,20 +5768,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -5797,20 +5797,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -5826,20 +5826,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>273</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5877,19 +5877,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5905,20 +5905,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.08</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5934,11 +5934,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>0.15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5954,11 +5954,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5974,20 +5974,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6003,20 +6003,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6032,20 +6032,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6061,20 +6061,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6090,20 +6090,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>1.8</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6119,11 +6119,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>6.39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -6139,20 +6139,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>1.66</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -6168,11 +6168,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>6.39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -6188,20 +6188,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -6217,20 +6217,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -6246,20 +6246,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -6275,20 +6275,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -6304,20 +6304,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>2.51</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -6333,11 +6333,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>8.25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6353,20 +6353,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>2.18</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -6382,11 +6382,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>8.199999999999999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6402,20 +6402,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -6431,20 +6431,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>343</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -6460,20 +6460,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -6489,20 +6489,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.87</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>357</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -6518,20 +6518,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>0.54</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -6547,11 +6547,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
         <v>2.11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -6567,20 +6567,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>0.35</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -6596,11 +6596,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
         <v>2.06</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -6616,20 +6616,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -6645,20 +6645,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -6674,20 +6674,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -6703,20 +6703,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -6754,19 +6754,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -6782,20 +6782,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -6811,11 +6811,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -6831,11 +6831,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -6851,20 +6851,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6880,20 +6880,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6909,20 +6909,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6938,20 +6938,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6967,20 +6967,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>0.46</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6996,11 +6996,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>1.51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7016,20 +7016,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.38</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7045,11 +7045,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>1.56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7065,20 +7065,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7094,20 +7094,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -7123,20 +7123,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -7152,20 +7152,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -7181,20 +7181,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>0.76</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -7210,11 +7210,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>2.36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -7230,20 +7230,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>0.54</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -7259,11 +7259,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>2.36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -7279,20 +7279,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -7308,20 +7308,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>343</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -7337,20 +7337,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -7366,20 +7366,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.84</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>356</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -7395,20 +7395,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -7424,11 +7424,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -7444,20 +7444,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -7473,11 +7473,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -7493,20 +7493,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -7522,20 +7522,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -7551,20 +7551,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -7580,20 +7580,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -7631,19 +7631,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -7659,20 +7659,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -7688,11 +7688,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -7708,11 +7708,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -7728,20 +7728,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -7757,20 +7757,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -7786,20 +7786,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -7815,20 +7815,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -7844,20 +7844,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7873,11 +7873,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>0.1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7893,20 +7893,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.05</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7922,11 +7922,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>0.15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7942,20 +7942,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.800000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>322</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7971,20 +7971,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8000,20 +8000,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8029,20 +8029,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8058,20 +8058,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>0.11</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8087,11 +8087,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>0.45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8107,20 +8107,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>0.08</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -8136,11 +8136,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>0.55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -8156,20 +8156,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -8185,20 +8185,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -8214,20 +8214,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -8243,20 +8243,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>355</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -8272,20 +8272,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -8301,11 +8301,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -8321,20 +8321,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -8350,11 +8350,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8370,20 +8370,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -8399,20 +8399,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -8428,20 +8428,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -8457,20 +8457,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -8508,19 +8508,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -8536,20 +8536,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -8565,11 +8565,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -8585,11 +8585,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -8605,20 +8605,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -8634,20 +8634,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -8663,20 +8663,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -8692,20 +8692,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -8721,20 +8721,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -8750,11 +8750,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -8770,20 +8770,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -8799,11 +8799,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -8819,20 +8819,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -8848,20 +8848,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8877,20 +8877,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8906,20 +8906,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8935,20 +8935,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8964,11 +8964,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8984,20 +8984,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -9013,11 +9013,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -9033,20 +9033,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -9062,20 +9062,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -9091,20 +9091,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -9120,20 +9120,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>355</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -9149,20 +9149,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -9178,11 +9178,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -9198,20 +9198,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -9227,11 +9227,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -9247,20 +9247,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -9276,20 +9276,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -9305,20 +9305,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -9334,20 +9334,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="129">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,6 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>20220316</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -105,15 +111,9 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220309</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-09 10:59:05.275989</t>
+    <t>2022-03-16 17:29:21.078931</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -595,10 +595,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,11 +611,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -629,11 +629,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -647,11 +647,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -687,11 +687,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -705,11 +705,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -723,11 +723,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,11 +741,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -759,11 +759,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -777,11 +777,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1113,10 +1113,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1127,13 +1127,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1144,13 +1144,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1161,13 +1161,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1178,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1195,13 +1195,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1212,13 +1212,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1229,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1246,13 +1246,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1263,13 +1263,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1280,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1325,19 +1325,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -1353,20 +1353,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -1382,11 +1382,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -1402,11 +1402,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -1422,20 +1422,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -1451,20 +1451,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
-      </c>
-      <c r="H6">
         <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -1480,20 +1480,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -1509,20 +1509,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
-      </c>
-      <c r="H8">
         <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -1538,20 +1538,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -1567,11 +1567,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -1587,20 +1587,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
-      </c>
-      <c r="H11">
         <v>483</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -1616,11 +1616,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -1636,20 +1636,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
-      </c>
-      <c r="H13">
         <v>321</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -1665,20 +1665,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -1694,20 +1694,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
-      </c>
-      <c r="H15">
         <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -1723,20 +1723,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
-      </c>
-      <c r="H16">
         <v>321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -1752,20 +1752,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -1781,11 +1781,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -1801,20 +1801,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -1830,11 +1830,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1850,20 +1850,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.81</v>
       </c>
       <c r="G21">
-        <v>10.81</v>
-      </c>
-      <c r="H21">
         <v>355</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -1879,20 +1879,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
-      </c>
-      <c r="H22">
         <v>341</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -1908,20 +1908,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
-      </c>
-      <c r="H23">
         <v>336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -1937,20 +1937,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.78</v>
       </c>
       <c r="G24">
-        <v>10.78</v>
-      </c>
-      <c r="H24">
         <v>354</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -1966,20 +1966,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
-      </c>
-      <c r="H25">
         <v>401</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -1995,11 +1995,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2015,20 +2015,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
-      </c>
-      <c r="H27">
         <v>395</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2044,11 +2044,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2064,20 +2064,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2093,20 +2093,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2122,20 +2122,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -2151,20 +2151,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -2202,19 +2202,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -2230,20 +2230,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -2259,11 +2259,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -2279,11 +2279,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -2299,20 +2299,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -2328,20 +2328,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.92</v>
       </c>
       <c r="G6">
-        <v>2.92</v>
-      </c>
-      <c r="H6">
         <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -2357,20 +2357,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -2386,20 +2386,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
-      </c>
-      <c r="H8">
         <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -2415,20 +2415,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -2444,11 +2444,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -2464,20 +2464,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
-      </c>
-      <c r="H11">
         <v>483</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2493,11 +2493,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -2513,20 +2513,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
-      </c>
-      <c r="H13">
         <v>321</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -2542,20 +2542,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -2571,20 +2571,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
-      </c>
-      <c r="H15">
         <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -2600,20 +2600,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.74</v>
       </c>
       <c r="G16">
-        <v>9.74</v>
-      </c>
-      <c r="H16">
         <v>320</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -2629,20 +2629,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -2658,11 +2658,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -2678,20 +2678,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -2707,11 +2707,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -2727,20 +2727,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.78</v>
       </c>
       <c r="G21">
-        <v>10.78</v>
-      </c>
-      <c r="H21">
         <v>354</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -2756,20 +2756,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
-      </c>
-      <c r="H22">
         <v>341</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -2785,20 +2785,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
-      </c>
-      <c r="H23">
         <v>336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -2814,20 +2814,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.78</v>
       </c>
       <c r="G24">
-        <v>10.78</v>
-      </c>
-      <c r="H24">
         <v>354</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -2843,20 +2843,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
-      </c>
-      <c r="H25">
         <v>401</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2872,11 +2872,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2892,20 +2892,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
-      </c>
-      <c r="H27">
         <v>395</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2921,11 +2921,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2941,20 +2941,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2970,20 +2970,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2999,20 +2999,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3028,20 +3028,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -3079,19 +3079,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -3107,20 +3107,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -3136,11 +3136,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -3156,11 +3156,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -3176,20 +3176,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -3205,20 +3205,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.92</v>
       </c>
       <c r="G6">
-        <v>2.92</v>
-      </c>
-      <c r="H6">
         <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -3234,20 +3234,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -3263,20 +3263,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>3.99</v>
       </c>
       <c r="G8">
-        <v>3.99</v>
-      </c>
-      <c r="H8">
         <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -3292,20 +3292,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -3321,11 +3321,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -3341,20 +3341,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
-      </c>
-      <c r="H11">
         <v>483</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -3370,11 +3370,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -3390,20 +3390,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
-      </c>
-      <c r="H13">
         <v>321</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -3419,20 +3419,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -3448,20 +3448,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
-      </c>
-      <c r="H15">
         <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -3477,20 +3477,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.74</v>
       </c>
       <c r="G16">
-        <v>9.74</v>
-      </c>
-      <c r="H16">
         <v>320</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -3506,20 +3506,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -3535,11 +3535,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -3555,20 +3555,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -3584,11 +3584,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -3604,20 +3604,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.78</v>
       </c>
       <c r="G21">
-        <v>10.78</v>
-      </c>
-      <c r="H21">
         <v>354</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -3633,20 +3633,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.41</v>
       </c>
       <c r="G22">
-        <v>10.41</v>
-      </c>
-      <c r="H22">
         <v>342</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -3662,20 +3662,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
-      </c>
-      <c r="H23">
         <v>336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -3691,20 +3691,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.75</v>
       </c>
       <c r="G24">
-        <v>10.75</v>
-      </c>
-      <c r="H24">
         <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -3720,20 +3720,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
-      </c>
-      <c r="H25">
         <v>401</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -3749,11 +3749,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3769,20 +3769,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
-      </c>
-      <c r="H27">
         <v>395</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -3798,11 +3798,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -3818,20 +3818,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -3847,20 +3847,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3876,20 +3876,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3905,20 +3905,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -4123,19 +4123,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -4151,20 +4151,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>2.48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>2.45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -4180,11 +4180,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3">
-        <v>7.89</v>
+      <c r="D3">
+        <v>7.79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -4200,11 +4200,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4">
-        <v>8.039999999999999</v>
+      <c r="D4">
+        <v>8.09</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -4220,20 +4220,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -4249,20 +4249,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
-      </c>
-      <c r="H6">
         <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -4278,20 +4278,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.8</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
-      </c>
-      <c r="H7">
         <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -4307,20 +4307,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.08</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
-      </c>
-      <c r="H8">
         <v>134</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -4336,20 +4336,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>10.59</v>
       </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -4365,11 +4365,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>26.04</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -4385,20 +4385,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>11.57</v>
       </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
-      </c>
-      <c r="H11">
         <v>484</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -4414,11 +4414,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
-        <v>26.4</v>
+      <c r="D12">
+        <v>26.34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -4434,20 +4434,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.859999999999999</v>
       </c>
       <c r="G13">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="H13">
         <v>324</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -4463,20 +4463,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
         <v>0.6</v>
       </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.65</v>
       </c>
       <c r="G14">
-        <v>9.65</v>
-      </c>
-      <c r="H14">
         <v>317</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -4492,20 +4492,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
+      <c r="D15">
         <v>0.14</v>
       </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.44</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
-      </c>
-      <c r="H15">
         <v>310</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -4521,20 +4521,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H16">
         <v>322</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -4550,20 +4550,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17">
-        <v>12.94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>12.91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <v>15.37</v>
       </c>
       <c r="G17">
-        <v>15.37</v>
-      </c>
-      <c r="H17">
         <v>505</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -4579,11 +4579,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
-        <v>28.26</v>
+      <c r="D18">
+        <v>28.31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -4599,20 +4599,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19">
-        <v>13.45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="D19">
+        <v>13.43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -4628,11 +4628,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20">
-        <v>28.46</v>
+      <c r="D20">
+        <v>28.61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -4648,20 +4648,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
+      <c r="D21">
         <v>0.03</v>
       </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
-      </c>
-      <c r="H21">
         <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -4677,20 +4677,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
         <v>1.58</v>
       </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.5</v>
       </c>
       <c r="G22">
-        <v>10.5</v>
-      </c>
-      <c r="H22">
         <v>345</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -4706,20 +4706,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
+      <c r="D23">
         <v>0.35</v>
       </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.26</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
-      </c>
-      <c r="H23">
         <v>337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -4735,20 +4735,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
+      <c r="D24">
         <v>0.03</v>
       </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.9</v>
       </c>
       <c r="G24">
-        <v>10.9</v>
-      </c>
-      <c r="H24">
         <v>358</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -4764,20 +4764,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25">
-        <v>5.61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>5.58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
-      </c>
-      <c r="H25">
         <v>401</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -4793,11 +4793,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26">
-        <v>17.8</v>
+      <c r="D26">
+        <v>17.75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -4813,20 +4813,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>5.23</v>
       </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>12.09</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
-      </c>
-      <c r="H27">
         <v>397</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -4842,11 +4842,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
         <v>17.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -4862,20 +4862,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.31</v>
       </c>
       <c r="G29">
-        <v>8.31</v>
-      </c>
-      <c r="H29">
         <v>273</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -4891,20 +4891,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -4920,20 +4920,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -4949,20 +4949,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.31</v>
       </c>
       <c r="G32">
-        <v>8.31</v>
-      </c>
-      <c r="H32">
         <v>273</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5000,19 +5000,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5028,20 +5028,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0.63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5057,11 +5057,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>1.71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5077,11 +5077,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>1.76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5097,20 +5097,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -5126,20 +5126,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.98</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
-      </c>
-      <c r="H6">
         <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -5155,20 +5155,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -5184,20 +5184,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.08</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
-      </c>
-      <c r="H8">
         <v>134</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -5213,20 +5213,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9">
-        <v>4.19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>4.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -5242,11 +5242,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>12.57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -5262,20 +5262,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>3.92</v>
       </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
-      </c>
-      <c r="H11">
         <v>484</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -5291,11 +5291,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
-        <v>12.67</v>
+      <c r="D12">
+        <v>12.62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -5311,20 +5311,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.859999999999999</v>
       </c>
       <c r="G13">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="H13">
         <v>324</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -5340,20 +5340,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -5369,20 +5369,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.470000000000001</v>
       </c>
       <c r="G15">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="H15">
         <v>311</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -5398,20 +5398,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H16">
         <v>322</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -5427,20 +5427,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>5.34</v>
       </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -5456,11 +5456,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>15.74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -5476,20 +5476,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>5.15</v>
       </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5505,11 +5505,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>15.84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -5525,20 +5525,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
-      </c>
-      <c r="H21">
         <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -5554,20 +5554,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.47</v>
       </c>
       <c r="G22">
-        <v>10.47</v>
-      </c>
-      <c r="H22">
         <v>344</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -5583,20 +5583,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.26</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
-      </c>
-      <c r="H23">
         <v>337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -5612,20 +5612,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.9</v>
       </c>
       <c r="G24">
-        <v>10.9</v>
-      </c>
-      <c r="H24">
         <v>358</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -5641,20 +5641,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <v>1.63</v>
       </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
-      </c>
-      <c r="H25">
         <v>401</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -5670,11 +5670,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26">
-        <v>5.73</v>
+      <c r="D26">
+        <v>5.68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -5690,20 +5690,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>1.14</v>
       </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.09</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
-      </c>
-      <c r="H27">
         <v>397</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -5719,11 +5719,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28">
-        <v>5.63</v>
+      <c r="D28">
+        <v>5.73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -5739,20 +5739,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -5768,20 +5768,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -5797,20 +5797,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -5826,20 +5826,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.31</v>
       </c>
       <c r="G32">
-        <v>8.31</v>
-      </c>
-      <c r="H32">
         <v>273</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5877,19 +5877,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5905,20 +5905,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>0.08</v>
       </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5934,11 +5934,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>0.15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5954,11 +5954,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5974,20 +5974,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6003,20 +6003,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.98</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
-      </c>
-      <c r="H6">
         <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6032,20 +6032,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6061,20 +6061,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.08</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
-      </c>
-      <c r="H8">
         <v>134</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6090,20 +6090,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>1.8</v>
       </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6119,11 +6119,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>6.39</v>
+      <c r="D10">
+        <v>6.33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -6139,20 +6139,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>1.66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="D11">
+        <v>1.63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
-      </c>
-      <c r="H11">
         <v>484</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -6168,11 +6168,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
-        <v>6.39</v>
+      <c r="D12">
+        <v>6.33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -6188,20 +6188,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.83</v>
       </c>
       <c r="G13">
-        <v>9.83</v>
-      </c>
-      <c r="H13">
         <v>323</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -6217,20 +6217,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -6246,20 +6246,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.44</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
-      </c>
-      <c r="H15">
         <v>310</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -6275,20 +6275,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H16">
         <v>322</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -6304,20 +6304,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>2.51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>2.53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -6333,11 +6333,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
-        <v>8.25</v>
+      <c r="D18">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6353,20 +6353,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>2.18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="D19">
+        <v>2.15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -6382,11 +6382,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20">
-        <v>8.199999999999999</v>
+      <c r="D20">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6402,20 +6402,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
-      </c>
-      <c r="H21">
         <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -6431,20 +6431,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.44</v>
       </c>
       <c r="G22">
-        <v>10.44</v>
-      </c>
-      <c r="H22">
         <v>343</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -6460,20 +6460,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.26</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
-      </c>
-      <c r="H23">
         <v>337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -6489,20 +6489,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.87</v>
       </c>
       <c r="G24">
-        <v>10.87</v>
-      </c>
-      <c r="H24">
         <v>357</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -6518,20 +6518,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <v>0.54</v>
       </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
-      </c>
-      <c r="H25">
         <v>402</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -6547,11 +6547,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
         <v>2.11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -6567,20 +6567,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>0.35</v>
       </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.09</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
-      </c>
-      <c r="H27">
         <v>397</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -6596,11 +6596,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
         <v>2.06</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -6616,20 +6616,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -6645,20 +6645,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -6674,20 +6674,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -6703,20 +6703,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -6754,19 +6754,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -6782,20 +6782,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -6811,11 +6811,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -6831,11 +6831,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -6851,20 +6851,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6880,20 +6880,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
-      </c>
-      <c r="H6">
         <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6909,20 +6909,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6938,20 +6938,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
-      </c>
-      <c r="H8">
         <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6967,20 +6967,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0.46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>0.44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6996,11 +6996,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>1.51</v>
+      <c r="D10">
+        <v>1.56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7016,20 +7016,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0.38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
-      </c>
-      <c r="H11">
         <v>484</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7045,11 +7045,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>1.56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7065,20 +7065,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.83</v>
       </c>
       <c r="G13">
-        <v>9.83</v>
-      </c>
-      <c r="H13">
         <v>323</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7094,20 +7094,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -7123,20 +7123,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.44</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
-      </c>
-      <c r="H15">
         <v>310</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -7152,20 +7152,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
-      </c>
-      <c r="H16">
         <v>321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -7181,20 +7181,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0.76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>0.74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -7210,11 +7210,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>2.36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -7230,20 +7230,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>0.54</v>
       </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -7259,11 +7259,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>2.36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -7279,20 +7279,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
-      </c>
-      <c r="H21">
         <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -7308,20 +7308,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.44</v>
       </c>
       <c r="G22">
-        <v>10.44</v>
-      </c>
-      <c r="H22">
         <v>343</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -7337,20 +7337,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
-      </c>
-      <c r="H23">
         <v>336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -7366,20 +7366,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.84</v>
       </c>
       <c r="G24">
-        <v>10.84</v>
-      </c>
-      <c r="H24">
         <v>356</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -7395,20 +7395,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
-      </c>
-      <c r="H25">
         <v>402</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -7424,11 +7424,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -7444,20 +7444,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.05</v>
       </c>
       <c r="G27">
-        <v>12.05</v>
-      </c>
-      <c r="H27">
         <v>396</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -7473,11 +7473,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -7493,20 +7493,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -7522,20 +7522,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.21</v>
       </c>
       <c r="G30">
-        <v>7.21</v>
-      </c>
-      <c r="H30">
         <v>237</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -7551,20 +7551,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -7580,20 +7580,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -7631,19 +7631,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -7659,20 +7659,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -7688,11 +7688,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -7708,11 +7708,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -7728,20 +7728,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -7757,20 +7757,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
-      </c>
-      <c r="H6">
         <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -7786,20 +7786,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -7815,20 +7815,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
-      </c>
-      <c r="H8">
         <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -7844,20 +7844,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7873,11 +7873,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7893,20 +7893,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>0.05</v>
       </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
-      </c>
-      <c r="H11">
         <v>483</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7922,11 +7922,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>0.15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7942,20 +7942,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.800000000000001</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H13">
         <v>322</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7971,20 +7971,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8000,20 +8000,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
-      </c>
-      <c r="H15">
         <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8029,20 +8029,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
-      </c>
-      <c r="H16">
         <v>321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8058,20 +8058,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>0.11</v>
       </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8087,11 +8087,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0.45</v>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8107,20 +8107,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>0.08</v>
       </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -8136,11 +8136,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>0.55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -8156,20 +8156,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
-      </c>
-      <c r="H21">
         <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -8185,20 +8185,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
-      </c>
-      <c r="H22">
         <v>341</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -8214,20 +8214,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
-      </c>
-      <c r="H23">
         <v>336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -8243,20 +8243,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.81</v>
       </c>
       <c r="G24">
-        <v>10.81</v>
-      </c>
-      <c r="H24">
         <v>355</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -8272,20 +8272,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
-      </c>
-      <c r="H25">
         <v>402</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -8301,11 +8301,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -8321,20 +8321,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.05</v>
       </c>
       <c r="G27">
-        <v>12.05</v>
-      </c>
-      <c r="H27">
         <v>396</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -8350,11 +8350,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8370,20 +8370,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -8399,20 +8399,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.21</v>
       </c>
       <c r="G30">
-        <v>7.21</v>
-      </c>
-      <c r="H30">
         <v>237</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -8428,20 +8428,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -8457,20 +8457,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -8508,19 +8508,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -8536,20 +8536,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
-      </c>
-      <c r="H2">
         <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -8565,11 +8565,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -8585,11 +8585,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -8605,20 +8605,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
-      </c>
-      <c r="H5">
         <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -8634,20 +8634,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
-      </c>
-      <c r="H6">
         <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -8663,20 +8663,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
-      </c>
-      <c r="H7">
         <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -8692,20 +8692,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>128</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
-      </c>
-      <c r="H8">
         <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -8721,20 +8721,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>128</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
-      </c>
-      <c r="H9">
         <v>481</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -8750,11 +8750,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -8770,20 +8770,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
-      </c>
-      <c r="H11">
         <v>483</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -8799,11 +8799,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -8819,20 +8819,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
-      </c>
-      <c r="H13">
         <v>321</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -8848,20 +8848,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8877,20 +8877,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
-      </c>
-      <c r="H15">
         <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8906,20 +8906,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
-      </c>
-      <c r="H16">
         <v>321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8935,20 +8935,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
-      </c>
-      <c r="H17">
         <v>504</v>
+      </c>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8964,11 +8964,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8984,20 +8984,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
-      </c>
-      <c r="H19">
         <v>508</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -9013,11 +9013,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -9033,20 +9033,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
-      </c>
-      <c r="H21">
         <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -9062,20 +9062,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
-      </c>
-      <c r="H22">
         <v>341</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -9091,20 +9091,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
-      </c>
-      <c r="H23">
         <v>336</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -9120,20 +9120,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>10.81</v>
       </c>
       <c r="G24">
-        <v>10.81</v>
-      </c>
-      <c r="H24">
         <v>355</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -9149,20 +9149,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
-      </c>
-      <c r="H25">
         <v>402</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -9178,11 +9178,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -9198,20 +9198,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
-      </c>
-      <c r="H27">
         <v>395</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -9227,11 +9227,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -9247,20 +9247,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -9276,20 +9276,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
-      </c>
-      <c r="H30">
         <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -9305,20 +9305,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
-      </c>
-      <c r="H31">
         <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -9334,20 +9334,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
-      </c>
-      <c r="H32">
         <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -75,7 +75,10 @@
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220316</t>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>20220324</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -111,9 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-16 17:29:21.078931</t>
+    <t>2022-03-24 17:14:05.318698</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -596,9 +596,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,8 +611,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -629,8 +629,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -647,8 +647,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -687,8 +687,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -705,8 +705,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -723,8 +723,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -741,8 +741,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -759,8 +759,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -777,8 +777,8 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
@@ -1119,7 +1119,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1133,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1150,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1167,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1184,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1201,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1218,10 +1218,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1235,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1252,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1269,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1286,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1325,10 +1325,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -1353,11 +1353,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -1382,11 +1382,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -1402,11 +1402,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -1422,11 +1422,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -1451,11 +1451,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
@@ -1480,11 +1480,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -1509,11 +1509,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
@@ -1538,11 +1538,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -1567,11 +1567,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -1587,11 +1587,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
@@ -1616,11 +1616,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -1636,11 +1636,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
@@ -1665,11 +1665,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -1694,11 +1694,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
@@ -1723,11 +1723,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
@@ -1752,11 +1752,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -1781,11 +1781,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -1801,11 +1801,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -1830,11 +1830,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1850,11 +1850,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.81</v>
@@ -1879,11 +1879,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
@@ -1908,11 +1908,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
@@ -1937,11 +1937,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.78</v>
@@ -1966,11 +1966,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.21</v>
@@ -1995,11 +1995,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2015,11 +2015,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
@@ -2044,11 +2044,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2064,11 +2064,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -2093,11 +2093,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -2122,11 +2122,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -2151,11 +2151,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
@@ -2202,10 +2202,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -2230,11 +2230,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -2259,11 +2259,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -2279,11 +2279,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -2299,11 +2299,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -2328,11 +2328,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.92</v>
@@ -2357,11 +2357,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -2386,11 +2386,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
@@ -2415,11 +2415,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -2444,11 +2444,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -2464,11 +2464,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
@@ -2493,11 +2493,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -2513,11 +2513,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
@@ -2542,11 +2542,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -2571,11 +2571,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
@@ -2600,11 +2600,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.74</v>
@@ -2629,11 +2629,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -2658,11 +2658,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -2678,11 +2678,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -2707,11 +2707,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -2727,11 +2727,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.78</v>
@@ -2756,11 +2756,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
@@ -2785,11 +2785,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
@@ -2814,11 +2814,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.78</v>
@@ -2843,11 +2843,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.21</v>
@@ -2872,11 +2872,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2892,11 +2892,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
@@ -2921,11 +2921,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2941,11 +2941,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -2970,11 +2970,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -2999,11 +2999,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -3028,11 +3028,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
@@ -3079,10 +3079,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -3107,11 +3107,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -3136,11 +3136,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -3156,11 +3156,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -3176,11 +3176,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -3205,11 +3205,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.92</v>
@@ -3234,11 +3234,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -3263,11 +3263,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>3.99</v>
@@ -3292,11 +3292,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -3321,11 +3321,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -3341,11 +3341,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
@@ -3370,11 +3370,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -3390,11 +3390,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
@@ -3419,11 +3419,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -3448,11 +3448,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
@@ -3477,11 +3477,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.74</v>
@@ -3506,11 +3506,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -3535,11 +3535,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -3555,11 +3555,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -3584,11 +3584,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -3604,11 +3604,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.78</v>
@@ -3633,11 +3633,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.41</v>
@@ -3662,11 +3662,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
@@ -3691,11 +3691,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.75</v>
@@ -3720,11 +3720,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.21</v>
@@ -3749,11 +3749,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3769,11 +3769,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
@@ -3798,11 +3798,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -3818,11 +3818,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -3847,11 +3847,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -3876,11 +3876,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -3905,11 +3905,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
@@ -4123,10 +4123,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -4151,11 +4151,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>2.45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -4180,11 +4180,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3">
         <v>7.79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -4200,11 +4200,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4">
         <v>8.09</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -4220,11 +4220,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -4249,11 +4249,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
@@ -4278,11 +4278,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.8</v>
@@ -4307,11 +4307,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.08</v>
@@ -4336,11 +4336,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
         <v>10.59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>128</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -4365,11 +4365,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>26.04</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -4385,11 +4385,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
         <v>11.57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>128</v>
       </c>
       <c r="F11">
         <v>14.73</v>
@@ -4414,11 +4414,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>26.34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -4434,11 +4434,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.859999999999999</v>
@@ -4463,11 +4463,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
         <v>0.6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
       </c>
       <c r="F14">
         <v>9.65</v>
@@ -4492,11 +4492,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
         <v>0.14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
       </c>
       <c r="F15">
         <v>9.44</v>
@@ -4521,11 +4521,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.800000000000001</v>
@@ -4550,11 +4550,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
         <v>12.91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
       </c>
       <c r="F17">
         <v>15.37</v>
@@ -4579,11 +4579,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>28.31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -4599,11 +4599,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
         <v>13.43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -4628,11 +4628,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>28.61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -4648,11 +4648,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
         <v>0.03</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
       </c>
       <c r="F21">
         <v>10.84</v>
@@ -4677,11 +4677,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
         <v>1.58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
       </c>
       <c r="F22">
         <v>10.5</v>
@@ -4706,11 +4706,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
         <v>0.35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
       </c>
       <c r="F23">
         <v>10.26</v>
@@ -4735,11 +4735,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
         <v>0.03</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
       </c>
       <c r="F24">
         <v>10.9</v>
@@ -4764,11 +4764,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25">
         <v>5.58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
       </c>
       <c r="F25">
         <v>12.21</v>
@@ -4793,11 +4793,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26">
         <v>17.75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -4813,11 +4813,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27">
         <v>5.23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>128</v>
       </c>
       <c r="F27">
         <v>12.09</v>
@@ -4842,11 +4842,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
         <v>17.75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -4862,11 +4862,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.31</v>
@@ -4891,11 +4891,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -4920,11 +4920,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -4949,11 +4949,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.31</v>
@@ -5000,10 +5000,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -5028,11 +5028,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -5057,11 +5057,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>1.71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5077,11 +5077,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>1.76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5097,11 +5097,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -5126,11 +5126,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.98</v>
@@ -5155,11 +5155,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -5184,11 +5184,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.08</v>
@@ -5213,11 +5213,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
         <v>4.25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>128</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -5242,11 +5242,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>12.57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -5262,11 +5262,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
         <v>3.92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>128</v>
       </c>
       <c r="F11">
         <v>14.73</v>
@@ -5291,11 +5291,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>12.62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -5311,11 +5311,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.859999999999999</v>
@@ -5340,11 +5340,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -5369,11 +5369,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.470000000000001</v>
@@ -5398,11 +5398,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.800000000000001</v>
@@ -5427,11 +5427,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
         <v>5.34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -5456,11 +5456,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>15.74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -5476,11 +5476,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
         <v>5.15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -5505,11 +5505,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>15.84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -5525,11 +5525,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
@@ -5554,11 +5554,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.47</v>
@@ -5583,11 +5583,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.26</v>
@@ -5612,11 +5612,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.9</v>
@@ -5641,11 +5641,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>1.63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
       </c>
       <c r="F25">
         <v>12.21</v>
@@ -5670,11 +5670,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26">
         <v>5.68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -5690,11 +5690,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>1.14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
       </c>
       <c r="F27">
         <v>12.09</v>
@@ -5719,11 +5719,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
         <v>5.73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -5739,11 +5739,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -5768,11 +5768,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -5797,11 +5797,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -5826,11 +5826,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.31</v>
@@ -5877,10 +5877,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -5905,11 +5905,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.08</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -5934,11 +5934,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>0.15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5954,11 +5954,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5974,11 +5974,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -6003,11 +6003,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.98</v>
@@ -6032,11 +6032,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -6061,11 +6061,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.08</v>
@@ -6090,11 +6090,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>1.8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -6119,11 +6119,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>6.33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -6139,11 +6139,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>1.63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
       </c>
       <c r="F11">
         <v>14.73</v>
@@ -6168,11 +6168,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>6.33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -6188,11 +6188,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.83</v>
@@ -6217,11 +6217,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -6246,11 +6246,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.44</v>
@@ -6275,11 +6275,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.800000000000001</v>
@@ -6304,11 +6304,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>2.53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -6333,11 +6333,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>8.140000000000001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6353,11 +6353,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>2.15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -6382,11 +6382,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>8.039999999999999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6402,11 +6402,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
@@ -6431,11 +6431,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.44</v>
@@ -6460,11 +6460,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.26</v>
@@ -6489,11 +6489,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.87</v>
@@ -6518,11 +6518,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>0.54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
       </c>
       <c r="F25">
         <v>12.24</v>
@@ -6547,11 +6547,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
         <v>2.11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -6567,11 +6567,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>0.35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
       </c>
       <c r="F27">
         <v>12.09</v>
@@ -6596,11 +6596,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
         <v>2.06</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -6616,11 +6616,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -6645,11 +6645,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -6674,11 +6674,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -6703,11 +6703,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
@@ -6754,10 +6754,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -6782,11 +6782,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -6811,11 +6811,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -6831,11 +6831,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -6851,11 +6851,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -6880,11 +6880,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
@@ -6909,11 +6909,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -6938,11 +6938,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
@@ -6967,11 +6967,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>0.44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -6996,11 +6996,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>1.56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7016,11 +7016,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
       </c>
       <c r="F11">
         <v>14.73</v>
@@ -7045,11 +7045,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>1.56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7065,11 +7065,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.83</v>
@@ -7094,11 +7094,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -7123,11 +7123,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.44</v>
@@ -7152,11 +7152,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
@@ -7181,11 +7181,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>0.74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -7210,11 +7210,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>2.36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -7230,11 +7230,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>0.54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -7259,11 +7259,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>2.36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -7279,11 +7279,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
@@ -7308,11 +7308,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.44</v>
@@ -7337,11 +7337,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
@@ -7366,11 +7366,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.84</v>
@@ -7395,11 +7395,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.24</v>
@@ -7424,11 +7424,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -7444,11 +7444,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.05</v>
@@ -7473,11 +7473,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -7493,11 +7493,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -7522,11 +7522,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.21</v>
@@ -7551,11 +7551,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -7580,11 +7580,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
@@ -7631,10 +7631,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -7659,11 +7659,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -7688,11 +7688,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -7708,11 +7708,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -7728,11 +7728,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -7757,11 +7757,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
@@ -7786,11 +7786,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -7815,11 +7815,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
@@ -7844,11 +7844,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -7873,11 +7873,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>0.1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7893,11 +7893,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.05</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
       </c>
       <c r="F11">
         <v>14.7</v>
@@ -7922,11 +7922,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>0.15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7942,11 +7942,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.800000000000001</v>
@@ -7971,11 +7971,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -8000,11 +8000,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
@@ -8029,11 +8029,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
@@ -8058,11 +8058,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>0.11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -8087,11 +8087,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>0.5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8107,11 +8107,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>0.08</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -8136,11 +8136,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>0.55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -8156,11 +8156,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
@@ -8185,11 +8185,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
@@ -8214,11 +8214,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
@@ -8243,11 +8243,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.81</v>
@@ -8272,11 +8272,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.24</v>
@@ -8301,11 +8301,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -8321,11 +8321,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.05</v>
@@ -8350,11 +8350,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8370,11 +8370,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -8399,11 +8399,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.21</v>
@@ -8428,11 +8428,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -8457,11 +8457,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
@@ -8508,10 +8508,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -8536,11 +8536,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
@@ -8565,11 +8565,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -8585,11 +8585,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -8605,11 +8605,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
@@ -8634,11 +8634,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
@@ -8663,11 +8663,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
@@ -8692,11 +8692,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
@@ -8721,11 +8721,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
@@ -8750,11 +8750,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -8770,11 +8770,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
@@ -8799,11 +8799,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -8819,11 +8819,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
@@ -8848,11 +8848,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
@@ -8877,11 +8877,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
@@ -8906,11 +8906,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
@@ -8935,11 +8935,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
@@ -8964,11 +8964,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8984,11 +8984,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
@@ -9013,11 +9013,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -9033,11 +9033,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
@@ -9062,11 +9062,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
@@ -9091,11 +9091,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
@@ -9120,11 +9120,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.81</v>
@@ -9149,11 +9149,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.24</v>
@@ -9178,11 +9178,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -9198,11 +9198,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
@@ -9227,11 +9227,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -9247,11 +9247,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
@@ -9276,11 +9276,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
@@ -9305,11 +9305,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
@@ -9334,11 +9334,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220325</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
-    <t>20220324</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-24 17:32:12.591638</t>
+    <t>2022-03-25 12:39:45.483027</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,9 +619,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -637,9 +637,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -655,9 +655,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -695,9 +695,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -713,9 +713,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -731,9 +731,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -749,9 +749,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -767,9 +767,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -785,9 +785,9 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1136,13 +1136,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1153,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1170,13 +1170,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1187,13 +1187,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1204,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1221,13 +1221,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1238,13 +1238,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1272,13 +1272,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1337,13 +1337,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -1365,14 +1365,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -1434,14 +1434,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -1463,14 +1463,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
-      <c r="H6">
-        <v>2.95</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -1492,14 +1492,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -1521,14 +1521,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
         <v>132</v>
       </c>
-      <c r="H8">
-        <v>4.02</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -1550,14 +1550,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -1599,14 +1599,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
         <v>483</v>
       </c>
-      <c r="H11">
-        <v>14.7</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -1648,14 +1648,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
         <v>321</v>
       </c>
-      <c r="H13">
-        <v>9.77</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -1677,14 +1677,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -1706,14 +1706,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
         <v>309</v>
       </c>
-      <c r="H15">
-        <v>9.41</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -1735,14 +1735,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
         <v>321</v>
       </c>
-      <c r="H16">
-        <v>9.77</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -1764,14 +1764,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -1813,14 +1813,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -1862,14 +1862,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.81</v>
       </c>
       <c r="G21">
         <v>355</v>
       </c>
-      <c r="H21">
-        <v>10.81</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -1891,14 +1891,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
         <v>341</v>
       </c>
-      <c r="H22">
-        <v>10.38</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -1920,14 +1920,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
         <v>336</v>
       </c>
-      <c r="H23">
-        <v>10.23</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -1949,14 +1949,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.78</v>
       </c>
       <c r="G24">
         <v>354</v>
       </c>
-      <c r="H24">
-        <v>10.78</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -1978,14 +1978,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
         <v>401</v>
       </c>
-      <c r="H25">
-        <v>12.21</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -2027,14 +2027,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
         <v>395</v>
       </c>
-      <c r="H27">
-        <v>12.02</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -2076,14 +2076,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -2105,14 +2105,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -2134,14 +2134,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -2163,14 +2163,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -2214,13 +2214,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -2242,14 +2242,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -2311,14 +2311,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -2340,14 +2340,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.92</v>
       </c>
       <c r="G6">
         <v>96</v>
       </c>
-      <c r="H6">
-        <v>2.92</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -2369,14 +2369,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -2398,14 +2398,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
         <v>132</v>
       </c>
-      <c r="H8">
-        <v>4.02</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -2427,14 +2427,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -2476,14 +2476,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
         <v>483</v>
       </c>
-      <c r="H11">
-        <v>14.7</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -2525,14 +2525,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
         <v>321</v>
       </c>
-      <c r="H13">
-        <v>9.77</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -2554,14 +2554,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -2583,14 +2583,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
         <v>309</v>
       </c>
-      <c r="H15">
-        <v>9.41</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -2612,14 +2612,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.74</v>
       </c>
       <c r="G16">
         <v>320</v>
       </c>
-      <c r="H16">
-        <v>9.74</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -2641,14 +2641,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -2690,14 +2690,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -2739,14 +2739,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.78</v>
       </c>
       <c r="G21">
         <v>354</v>
       </c>
-      <c r="H21">
-        <v>10.78</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -2768,14 +2768,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
         <v>341</v>
       </c>
-      <c r="H22">
-        <v>10.38</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -2797,14 +2797,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
         <v>336</v>
       </c>
-      <c r="H23">
-        <v>10.23</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -2826,14 +2826,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.78</v>
       </c>
       <c r="G24">
         <v>354</v>
       </c>
-      <c r="H24">
-        <v>10.78</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -2855,14 +2855,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
         <v>401</v>
       </c>
-      <c r="H25">
-        <v>12.21</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -2904,14 +2904,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
         <v>395</v>
       </c>
-      <c r="H27">
-        <v>12.02</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -2953,14 +2953,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -2982,14 +2982,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3011,14 +3011,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -3040,14 +3040,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -3091,13 +3091,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -3119,14 +3119,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -3188,14 +3188,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -3217,14 +3217,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.92</v>
       </c>
       <c r="G6">
         <v>96</v>
       </c>
-      <c r="H6">
-        <v>2.92</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -3246,14 +3246,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -3275,14 +3275,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>3.99</v>
       </c>
       <c r="G8">
         <v>131</v>
       </c>
-      <c r="H8">
-        <v>3.99</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -3304,14 +3304,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -3353,14 +3353,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
         <v>483</v>
       </c>
-      <c r="H11">
-        <v>14.7</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -3402,14 +3402,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
         <v>321</v>
       </c>
-      <c r="H13">
-        <v>9.77</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -3431,14 +3431,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -3460,14 +3460,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
         <v>309</v>
       </c>
-      <c r="H15">
-        <v>9.41</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -3489,14 +3489,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.74</v>
       </c>
       <c r="G16">
         <v>320</v>
       </c>
-      <c r="H16">
-        <v>9.74</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -3518,14 +3518,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -3567,14 +3567,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -3616,14 +3616,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.78</v>
       </c>
       <c r="G21">
         <v>354</v>
       </c>
-      <c r="H21">
-        <v>10.78</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -3645,14 +3645,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.41</v>
       </c>
       <c r="G22">
         <v>342</v>
       </c>
-      <c r="H22">
-        <v>10.41</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -3674,14 +3674,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
         <v>336</v>
       </c>
-      <c r="H23">
-        <v>10.23</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -3703,14 +3703,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.75</v>
       </c>
       <c r="G24">
         <v>353</v>
       </c>
-      <c r="H24">
-        <v>10.75</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -3732,14 +3732,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
         <v>401</v>
       </c>
-      <c r="H25">
-        <v>12.21</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -3781,14 +3781,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
         <v>395</v>
       </c>
-      <c r="H27">
-        <v>12.02</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -3830,14 +3830,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -3859,14 +3859,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3888,14 +3888,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -3917,14 +3917,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -4143,13 +4143,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -4171,14 +4171,14 @@
       <c r="E2">
         <v>2.45</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -4240,14 +4240,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -4269,14 +4269,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
-      <c r="H6">
-        <v>2.95</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -4298,14 +4298,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.8</v>
       </c>
       <c r="G7">
         <v>92</v>
       </c>
-      <c r="H7">
-        <v>2.8</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -4327,14 +4327,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.08</v>
       </c>
       <c r="G8">
         <v>134</v>
       </c>
-      <c r="H8">
-        <v>4.08</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -4356,14 +4356,14 @@
       <c r="E9">
         <v>10.59</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -4405,14 +4405,14 @@
       <c r="E11">
         <v>11.57</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
         <v>484</v>
       </c>
-      <c r="H11">
-        <v>14.73</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -4454,14 +4454,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.859999999999999</v>
       </c>
       <c r="G13">
         <v>324</v>
       </c>
-      <c r="H13">
-        <v>9.859999999999999</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -4483,14 +4483,14 @@
       <c r="E14">
         <v>0.6</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.65</v>
       </c>
       <c r="G14">
         <v>317</v>
       </c>
-      <c r="H14">
-        <v>9.65</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -4512,14 +4512,14 @@
       <c r="E15">
         <v>0.14</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.44</v>
       </c>
       <c r="G15">
         <v>310</v>
       </c>
-      <c r="H15">
-        <v>9.44</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -4541,14 +4541,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
         <v>322</v>
       </c>
-      <c r="H16">
-        <v>9.800000000000001</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -4570,14 +4570,14 @@
       <c r="E17">
         <v>12.91</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.37</v>
       </c>
       <c r="G17">
         <v>505</v>
       </c>
-      <c r="H17">
-        <v>15.37</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -4619,14 +4619,14 @@
       <c r="E19">
         <v>13.43</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -4668,14 +4668,14 @@
       <c r="E21">
         <v>0.03</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
         <v>356</v>
       </c>
-      <c r="H21">
-        <v>10.84</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -4697,14 +4697,14 @@
       <c r="E22">
         <v>1.58</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.5</v>
       </c>
       <c r="G22">
         <v>345</v>
       </c>
-      <c r="H22">
-        <v>10.5</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -4726,14 +4726,14 @@
       <c r="E23">
         <v>0.35</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.26</v>
       </c>
       <c r="G23">
         <v>337</v>
       </c>
-      <c r="H23">
-        <v>10.26</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -4755,14 +4755,14 @@
       <c r="E24">
         <v>0.03</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.9</v>
       </c>
       <c r="G24">
         <v>358</v>
       </c>
-      <c r="H24">
-        <v>10.9</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -4784,14 +4784,14 @@
       <c r="E25">
         <v>5.58</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
         <v>401</v>
       </c>
-      <c r="H25">
-        <v>12.21</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -4833,14 +4833,14 @@
       <c r="E27">
         <v>5.23</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.09</v>
       </c>
       <c r="G27">
         <v>397</v>
       </c>
-      <c r="H27">
-        <v>12.09</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -4882,14 +4882,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.31</v>
       </c>
       <c r="G29">
         <v>273</v>
       </c>
-      <c r="H29">
-        <v>8.31</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -4911,14 +4911,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -4940,14 +4940,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -4969,14 +4969,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.31</v>
       </c>
       <c r="G32">
         <v>273</v>
       </c>
-      <c r="H32">
-        <v>8.31</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -5020,13 +5020,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -5048,14 +5048,14 @@
       <c r="E2">
         <v>0.6</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -5117,14 +5117,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -5146,14 +5146,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.98</v>
       </c>
       <c r="G6">
         <v>98</v>
       </c>
-      <c r="H6">
-        <v>2.98</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -5175,14 +5175,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -5204,14 +5204,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.08</v>
       </c>
       <c r="G8">
         <v>134</v>
       </c>
-      <c r="H8">
-        <v>4.08</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -5233,14 +5233,14 @@
       <c r="E9">
         <v>4.25</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -5282,14 +5282,14 @@
       <c r="E11">
         <v>3.92</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
         <v>484</v>
       </c>
-      <c r="H11">
-        <v>14.73</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -5331,14 +5331,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.859999999999999</v>
       </c>
       <c r="G13">
         <v>324</v>
       </c>
-      <c r="H13">
-        <v>9.859999999999999</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -5360,14 +5360,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -5389,14 +5389,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.470000000000001</v>
       </c>
       <c r="G15">
         <v>311</v>
       </c>
-      <c r="H15">
-        <v>9.470000000000001</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -5418,14 +5418,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
         <v>322</v>
       </c>
-      <c r="H16">
-        <v>9.800000000000001</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -5447,14 +5447,14 @@
       <c r="E17">
         <v>5.34</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -5496,14 +5496,14 @@
       <c r="E19">
         <v>5.15</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -5545,14 +5545,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
         <v>356</v>
       </c>
-      <c r="H21">
-        <v>10.84</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -5574,14 +5574,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.47</v>
       </c>
       <c r="G22">
         <v>344</v>
       </c>
-      <c r="H22">
-        <v>10.47</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -5603,14 +5603,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.26</v>
       </c>
       <c r="G23">
         <v>337</v>
       </c>
-      <c r="H23">
-        <v>10.26</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -5632,14 +5632,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.9</v>
       </c>
       <c r="G24">
         <v>358</v>
       </c>
-      <c r="H24">
-        <v>10.9</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -5661,14 +5661,14 @@
       <c r="E25">
         <v>1.63</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.21</v>
       </c>
       <c r="G25">
         <v>401</v>
       </c>
-      <c r="H25">
-        <v>12.21</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -5710,14 +5710,14 @@
       <c r="E27">
         <v>1.14</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.09</v>
       </c>
       <c r="G27">
         <v>397</v>
       </c>
-      <c r="H27">
-        <v>12.09</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -5759,14 +5759,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -5788,14 +5788,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -5817,14 +5817,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -5846,14 +5846,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.31</v>
       </c>
       <c r="G32">
         <v>273</v>
       </c>
-      <c r="H32">
-        <v>8.31</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -5897,13 +5897,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -5925,14 +5925,14 @@
       <c r="E2">
         <v>0.08</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -5994,14 +5994,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -6023,14 +6023,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.98</v>
       </c>
       <c r="G6">
         <v>98</v>
       </c>
-      <c r="H6">
-        <v>2.98</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -6052,14 +6052,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -6081,14 +6081,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.08</v>
       </c>
       <c r="G8">
         <v>134</v>
       </c>
-      <c r="H8">
-        <v>4.08</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -6110,14 +6110,14 @@
       <c r="E9">
         <v>1.8</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -6159,14 +6159,14 @@
       <c r="E11">
         <v>1.63</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
         <v>484</v>
       </c>
-      <c r="H11">
-        <v>14.73</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -6208,14 +6208,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.83</v>
       </c>
       <c r="G13">
         <v>323</v>
       </c>
-      <c r="H13">
-        <v>9.83</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -6237,14 +6237,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -6266,14 +6266,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.44</v>
       </c>
       <c r="G15">
         <v>310</v>
       </c>
-      <c r="H15">
-        <v>9.44</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -6295,14 +6295,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.800000000000001</v>
       </c>
       <c r="G16">
         <v>322</v>
       </c>
-      <c r="H16">
-        <v>9.800000000000001</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -6324,14 +6324,14 @@
       <c r="E17">
         <v>2.53</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -6373,14 +6373,14 @@
       <c r="E19">
         <v>2.15</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -6422,14 +6422,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
         <v>356</v>
       </c>
-      <c r="H21">
-        <v>10.84</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -6451,14 +6451,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.44</v>
       </c>
       <c r="G22">
         <v>343</v>
       </c>
-      <c r="H22">
-        <v>10.44</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -6480,14 +6480,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.26</v>
       </c>
       <c r="G23">
         <v>337</v>
       </c>
-      <c r="H23">
-        <v>10.26</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -6509,14 +6509,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.87</v>
       </c>
       <c r="G24">
         <v>357</v>
       </c>
-      <c r="H24">
-        <v>10.87</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -6538,14 +6538,14 @@
       <c r="E25">
         <v>0.54</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
         <v>402</v>
       </c>
-      <c r="H25">
-        <v>12.24</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -6587,14 +6587,14 @@
       <c r="E27">
         <v>0.35</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.09</v>
       </c>
       <c r="G27">
         <v>397</v>
       </c>
-      <c r="H27">
-        <v>12.09</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -6636,14 +6636,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -6665,14 +6665,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -6694,14 +6694,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -6723,14 +6723,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -6774,13 +6774,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -6802,14 +6802,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -6871,14 +6871,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -6900,14 +6900,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
-      <c r="H6">
-        <v>2.95</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -6929,14 +6929,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -6958,14 +6958,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
         <v>132</v>
       </c>
-      <c r="H8">
-        <v>4.02</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -6987,14 +6987,14 @@
       <c r="E9">
         <v>0.44</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -7036,14 +7036,14 @@
       <c r="E11">
         <v>0.35</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.73</v>
       </c>
       <c r="G11">
         <v>484</v>
       </c>
-      <c r="H11">
-        <v>14.73</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -7085,14 +7085,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.83</v>
       </c>
       <c r="G13">
         <v>323</v>
       </c>
-      <c r="H13">
-        <v>9.83</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -7114,14 +7114,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -7143,14 +7143,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.44</v>
       </c>
       <c r="G15">
         <v>310</v>
       </c>
-      <c r="H15">
-        <v>9.44</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -7172,14 +7172,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
         <v>321</v>
       </c>
-      <c r="H16">
-        <v>9.77</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -7201,14 +7201,14 @@
       <c r="E17">
         <v>0.74</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -7250,14 +7250,14 @@
       <c r="E19">
         <v>0.54</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -7299,14 +7299,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
         <v>356</v>
       </c>
-      <c r="H21">
-        <v>10.84</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -7328,14 +7328,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.44</v>
       </c>
       <c r="G22">
         <v>343</v>
       </c>
-      <c r="H22">
-        <v>10.44</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -7357,14 +7357,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
         <v>336</v>
       </c>
-      <c r="H23">
-        <v>10.23</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -7386,14 +7386,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.84</v>
       </c>
       <c r="G24">
         <v>356</v>
       </c>
-      <c r="H24">
-        <v>10.84</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -7415,14 +7415,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
         <v>402</v>
       </c>
-      <c r="H25">
-        <v>12.24</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -7464,14 +7464,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.05</v>
       </c>
       <c r="G27">
         <v>396</v>
       </c>
-      <c r="H27">
-        <v>12.05</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -7513,14 +7513,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -7542,14 +7542,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.21</v>
       </c>
       <c r="G30">
         <v>237</v>
       </c>
-      <c r="H30">
-        <v>7.21</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -7571,14 +7571,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -7600,14 +7600,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -7651,13 +7651,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -7679,14 +7679,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -7748,14 +7748,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -7777,14 +7777,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
-      <c r="H6">
-        <v>2.95</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -7806,14 +7806,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -7835,14 +7835,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
         <v>132</v>
       </c>
-      <c r="H8">
-        <v>4.02</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -7864,14 +7864,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -7913,14 +7913,14 @@
       <c r="E11">
         <v>0.05</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
         <v>483</v>
       </c>
-      <c r="H11">
-        <v>14.7</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -7962,14 +7962,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.800000000000001</v>
       </c>
       <c r="G13">
         <v>322</v>
       </c>
-      <c r="H13">
-        <v>9.800000000000001</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -7991,14 +7991,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -8020,14 +8020,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
         <v>309</v>
       </c>
-      <c r="H15">
-        <v>9.41</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -8049,14 +8049,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
         <v>321</v>
       </c>
-      <c r="H16">
-        <v>9.77</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -8078,14 +8078,14 @@
       <c r="E17">
         <v>0.11</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -8127,14 +8127,14 @@
       <c r="E19">
         <v>0.08</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -8176,14 +8176,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
         <v>356</v>
       </c>
-      <c r="H21">
-        <v>10.84</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -8205,14 +8205,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
         <v>341</v>
       </c>
-      <c r="H22">
-        <v>10.38</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -8234,14 +8234,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
         <v>336</v>
       </c>
-      <c r="H23">
-        <v>10.23</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -8263,14 +8263,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.81</v>
       </c>
       <c r="G24">
         <v>355</v>
       </c>
-      <c r="H24">
-        <v>10.81</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -8292,14 +8292,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
         <v>402</v>
       </c>
-      <c r="H25">
-        <v>12.24</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -8341,14 +8341,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.05</v>
       </c>
       <c r="G27">
         <v>396</v>
       </c>
-      <c r="H27">
-        <v>12.05</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -8390,14 +8390,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -8419,14 +8419,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.21</v>
       </c>
       <c r="G30">
         <v>237</v>
       </c>
-      <c r="H30">
-        <v>7.21</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -8448,14 +8448,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -8477,14 +8477,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -8528,13 +8528,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -8556,14 +8556,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
+      <c r="F2">
+        <v>8.43</v>
       </c>
       <c r="G2">
         <v>277</v>
       </c>
-      <c r="H2">
-        <v>8.43</v>
+      <c r="H2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -8625,14 +8625,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
+      <c r="F5">
+        <v>4.14</v>
       </c>
       <c r="G5">
         <v>136</v>
       </c>
-      <c r="H5">
-        <v>4.14</v>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -8654,14 +8654,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
+      <c r="F6">
+        <v>2.95</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
-      <c r="H6">
-        <v>2.95</v>
+      <c r="H6" t="s">
+        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -8683,14 +8683,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
+      <c r="F7">
+        <v>2.77</v>
       </c>
       <c r="G7">
         <v>91</v>
       </c>
-      <c r="H7">
-        <v>2.77</v>
+      <c r="H7" t="s">
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -8712,14 +8712,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8">
+        <v>4.02</v>
       </c>
       <c r="G8">
         <v>132</v>
       </c>
-      <c r="H8">
-        <v>4.02</v>
+      <c r="H8" t="s">
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -8741,14 +8741,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
+      <c r="F9">
+        <v>14.64</v>
       </c>
       <c r="G9">
         <v>481</v>
       </c>
-      <c r="H9">
-        <v>14.64</v>
+      <c r="H9" t="s">
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -8790,14 +8790,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
+      <c r="F11">
+        <v>14.7</v>
       </c>
       <c r="G11">
         <v>483</v>
       </c>
-      <c r="H11">
-        <v>14.7</v>
+      <c r="H11" t="s">
+        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -8839,14 +8839,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
+      <c r="F13">
+        <v>9.77</v>
       </c>
       <c r="G13">
         <v>321</v>
       </c>
-      <c r="H13">
-        <v>9.77</v>
+      <c r="H13" t="s">
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -8868,14 +8868,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="F14">
+        <v>9.619999999999999</v>
       </c>
       <c r="G14">
         <v>316</v>
       </c>
-      <c r="H14">
-        <v>9.619999999999999</v>
+      <c r="H14" t="s">
+        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -8897,14 +8897,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
+      <c r="F15">
+        <v>9.41</v>
       </c>
       <c r="G15">
         <v>309</v>
       </c>
-      <c r="H15">
-        <v>9.41</v>
+      <c r="H15" t="s">
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -8926,14 +8926,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16">
+        <v>9.77</v>
       </c>
       <c r="G16">
         <v>321</v>
       </c>
-      <c r="H16">
-        <v>9.77</v>
+      <c r="H16" t="s">
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -8955,14 +8955,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
+      <c r="F17">
+        <v>15.34</v>
       </c>
       <c r="G17">
         <v>504</v>
       </c>
-      <c r="H17">
-        <v>15.34</v>
+      <c r="H17" t="s">
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -9004,14 +9004,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
+      <c r="F19">
+        <v>15.46</v>
       </c>
       <c r="G19">
         <v>508</v>
       </c>
-      <c r="H19">
-        <v>15.46</v>
+      <c r="H19" t="s">
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -9053,14 +9053,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
+      <c r="F21">
+        <v>10.84</v>
       </c>
       <c r="G21">
         <v>356</v>
       </c>
-      <c r="H21">
-        <v>10.84</v>
+      <c r="H21" t="s">
+        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -9082,14 +9082,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>130</v>
+      <c r="F22">
+        <v>10.38</v>
       </c>
       <c r="G22">
         <v>341</v>
       </c>
-      <c r="H22">
-        <v>10.38</v>
+      <c r="H22" t="s">
+        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -9111,14 +9111,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>130</v>
+      <c r="F23">
+        <v>10.23</v>
       </c>
       <c r="G23">
         <v>336</v>
       </c>
-      <c r="H23">
-        <v>10.23</v>
+      <c r="H23" t="s">
+        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -9140,14 +9140,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
+      <c r="F24">
+        <v>10.81</v>
       </c>
       <c r="G24">
         <v>355</v>
       </c>
-      <c r="H24">
-        <v>10.81</v>
+      <c r="H24" t="s">
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -9169,14 +9169,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
+      <c r="F25">
+        <v>12.24</v>
       </c>
       <c r="G25">
         <v>402</v>
       </c>
-      <c r="H25">
-        <v>12.24</v>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -9218,14 +9218,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
+      <c r="F27">
+        <v>12.02</v>
       </c>
       <c r="G27">
         <v>395</v>
       </c>
-      <c r="H27">
-        <v>12.02</v>
+      <c r="H27" t="s">
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -9267,14 +9267,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
+      <c r="F29">
+        <v>8.279999999999999</v>
       </c>
       <c r="G29">
         <v>272</v>
       </c>
-      <c r="H29">
-        <v>8.279999999999999</v>
+      <c r="H29" t="s">
+        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -9296,14 +9296,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
+      <c r="F30">
+        <v>7.25</v>
       </c>
       <c r="G30">
         <v>238</v>
       </c>
-      <c r="H30">
-        <v>7.25</v>
+      <c r="H30" t="s">
+        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -9325,14 +9325,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
+      <c r="F31">
+        <v>7.03</v>
       </c>
       <c r="G31">
         <v>231</v>
       </c>
-      <c r="H31">
-        <v>7.03</v>
+      <c r="H31" t="s">
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -9354,14 +9354,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
+      <c r="F32">
+        <v>8.34</v>
       </c>
       <c r="G32">
         <v>274</v>
       </c>
-      <c r="H32">
-        <v>8.34</v>
+      <c r="H32" t="s">
+        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>20220325</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 12:39:45.483027</t>
+    <t>2022-03-25 13:28:13.405148</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -192,22 +192,22 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Criterion A (% Time Delta T &gt;= 1K)</t>
-  </si>
-  <si>
-    <t>Criterion B (% Time Operative T &gt; 26 Deg. C)</t>
-  </si>
-  <si>
-    <t>Criterion B (Time Operative T &gt; 26 Deg. C)</t>
-  </si>
-  <si>
-    <t>The percentage of occupied time where delta T equals or exceeds the threshold (1 kelvin) over the total occupied time.</t>
-  </si>
-  <si>
-    <t>The percentage of occupied time in a bedroom where the operative temperature exceeds the threshold (26 degrees celsius) between 10pm and 7am over the total annual occupied time between 10pm and 7am.</t>
-  </si>
-  <si>
-    <t>Time intervals where the operative temperature is strictly greater than 26 Deg. C.</t>
+    <t>Criterion A (% Hours Delta T &gt;= 1K)</t>
+  </si>
+  <si>
+    <t>Criterion B (% Hours Operative T &gt; 26 Deg. C)</t>
+  </si>
+  <si>
+    <t>Criterion B (Hours Operative T &gt; 26 Deg. C)</t>
+  </si>
+  <si>
+    <t>The percentage of occupied hours where delta T equals or exceeds the threshold (1 kelvin) over the total occupied hours.</t>
+  </si>
+  <si>
+    <t>The percentage of occupied hours in a bedroom where the operative temperature exceeds the threshold (26 degrees celsius) between 10pm and 7am over the total annual occupied hours between 10pm and 7am.</t>
+  </si>
+  <si>
+    <t>Number of hours where the operative temperature is strictly greater than 26 Deg. C.</t>
   </si>
   <si>
     <t>Room Name</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -618,10 +618,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -636,10 +636,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -654,10 +654,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -694,10 +694,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -712,10 +712,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -730,10 +730,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -748,10 +748,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -766,10 +766,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -784,10 +784,10 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Time Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Time Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -1133,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -1167,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1184,10 +1184,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1201,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1218,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -1235,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1252,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -1269,10 +1269,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1286,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1337,13 +1337,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -1365,14 +1365,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -1434,14 +1434,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -1463,14 +1463,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -1492,14 +1492,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -1521,14 +1521,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -1550,14 +1550,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -1599,14 +1599,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -1648,14 +1648,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -1677,14 +1677,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -1706,14 +1706,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -1735,14 +1735,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -1764,14 +1764,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -1813,14 +1813,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -1862,14 +1862,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.81</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>355</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -1891,14 +1891,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -1920,14 +1920,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -1949,14 +1949,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>354</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -1978,14 +1978,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -2027,14 +2027,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -2076,14 +2076,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -2105,14 +2105,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -2134,14 +2134,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -2163,14 +2163,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -2214,13 +2214,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -2242,14 +2242,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -2311,14 +2311,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -2340,14 +2340,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -2369,14 +2369,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -2398,14 +2398,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -2427,14 +2427,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -2476,14 +2476,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -2525,14 +2525,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -2554,14 +2554,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -2583,14 +2583,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -2612,14 +2612,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>320</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -2641,14 +2641,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -2690,14 +2690,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -2739,14 +2739,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -2768,14 +2768,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -2797,14 +2797,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -2826,14 +2826,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>354</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -2855,14 +2855,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -2904,14 +2904,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -2953,14 +2953,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -2982,14 +2982,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3011,14 +3011,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -3040,14 +3040,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -3091,13 +3091,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -3119,14 +3119,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -3188,14 +3188,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -3217,14 +3217,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -3246,14 +3246,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -3275,14 +3275,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>3.99</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>131</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -3304,14 +3304,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -3353,14 +3353,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -3402,14 +3402,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -3431,14 +3431,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -3460,14 +3460,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -3489,14 +3489,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>320</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -3518,14 +3518,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -3567,14 +3567,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -3616,14 +3616,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -3645,14 +3645,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.41</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>342</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -3674,14 +3674,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -3703,14 +3703,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.75</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>353</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -3732,14 +3732,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -3781,14 +3781,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -3830,14 +3830,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -3859,14 +3859,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3888,14 +3888,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -3917,14 +3917,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -4143,13 +4143,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -4171,14 +4171,14 @@
       <c r="E2">
         <v>2.45</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -4240,14 +4240,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -4269,14 +4269,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -4298,14 +4298,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -4327,14 +4327,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -4356,14 +4356,14 @@
       <c r="E9">
         <v>10.59</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -4405,14 +4405,14 @@
       <c r="E11">
         <v>11.57</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -4454,14 +4454,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.859999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -4483,14 +4483,14 @@
       <c r="E14">
         <v>0.6</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>317</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -4512,14 +4512,14 @@
       <c r="E15">
         <v>0.14</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -4541,14 +4541,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -4570,14 +4570,14 @@
       <c r="E17">
         <v>12.91</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.37</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>505</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -4619,14 +4619,14 @@
       <c r="E19">
         <v>13.43</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -4668,14 +4668,14 @@
       <c r="E21">
         <v>0.03</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -4697,14 +4697,14 @@
       <c r="E22">
         <v>1.58</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.5</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>345</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -4726,14 +4726,14 @@
       <c r="E23">
         <v>0.35</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -4755,14 +4755,14 @@
       <c r="E24">
         <v>0.03</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>358</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -4784,14 +4784,14 @@
       <c r="E25">
         <v>5.58</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -4833,14 +4833,14 @@
       <c r="E27">
         <v>5.23</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -4882,14 +4882,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.31</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>273</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -4911,14 +4911,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -4940,14 +4940,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -4969,14 +4969,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>273</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -5020,13 +5020,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -5048,14 +5048,14 @@
       <c r="E2">
         <v>0.6</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -5117,14 +5117,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -5146,14 +5146,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -5175,14 +5175,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -5204,14 +5204,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -5233,14 +5233,14 @@
       <c r="E9">
         <v>4.25</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -5282,14 +5282,14 @@
       <c r="E11">
         <v>3.92</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -5331,14 +5331,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.859999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -5360,14 +5360,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -5389,14 +5389,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.470000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>311</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -5418,14 +5418,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -5447,14 +5447,14 @@
       <c r="E17">
         <v>5.34</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -5496,14 +5496,14 @@
       <c r="E19">
         <v>5.15</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -5545,14 +5545,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -5574,14 +5574,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.47</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>344</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -5603,14 +5603,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -5632,14 +5632,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>358</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -5661,14 +5661,14 @@
       <c r="E25">
         <v>1.63</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -5710,14 +5710,14 @@
       <c r="E27">
         <v>1.14</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -5759,14 +5759,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -5788,14 +5788,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -5817,14 +5817,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -5846,14 +5846,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>273</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -5897,13 +5897,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -5925,14 +5925,14 @@
       <c r="E2">
         <v>0.08</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -5994,14 +5994,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -6023,14 +6023,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -6052,14 +6052,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -6081,14 +6081,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -6110,14 +6110,14 @@
       <c r="E9">
         <v>1.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -6159,14 +6159,14 @@
       <c r="E11">
         <v>1.63</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -6208,14 +6208,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -6237,14 +6237,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -6266,14 +6266,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -6295,14 +6295,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -6324,14 +6324,14 @@
       <c r="E17">
         <v>2.53</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -6373,14 +6373,14 @@
       <c r="E19">
         <v>2.15</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -6422,14 +6422,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -6451,14 +6451,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>343</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -6480,14 +6480,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -6509,14 +6509,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.87</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>357</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -6538,14 +6538,14 @@
       <c r="E25">
         <v>0.54</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -6587,14 +6587,14 @@
       <c r="E27">
         <v>0.35</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -6636,14 +6636,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -6665,14 +6665,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -6694,14 +6694,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -6723,14 +6723,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -6774,13 +6774,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -6802,14 +6802,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -6871,14 +6871,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -6900,14 +6900,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -6929,14 +6929,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -6958,14 +6958,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -6987,14 +6987,14 @@
       <c r="E9">
         <v>0.44</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -7036,14 +7036,14 @@
       <c r="E11">
         <v>0.35</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -7085,14 +7085,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -7114,14 +7114,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -7143,14 +7143,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -7172,14 +7172,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -7201,14 +7201,14 @@
       <c r="E17">
         <v>0.74</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -7250,14 +7250,14 @@
       <c r="E19">
         <v>0.54</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -7299,14 +7299,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -7328,14 +7328,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>343</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -7357,14 +7357,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -7386,14 +7386,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.84</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>356</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -7415,14 +7415,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -7464,14 +7464,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -7513,14 +7513,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -7542,14 +7542,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -7571,14 +7571,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -7600,14 +7600,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -7651,13 +7651,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -7679,14 +7679,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -7748,14 +7748,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -7777,14 +7777,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -7806,14 +7806,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -7835,14 +7835,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -7864,14 +7864,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -7913,14 +7913,14 @@
       <c r="E11">
         <v>0.05</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -7962,14 +7962,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.800000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>322</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -7991,14 +7991,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -8020,14 +8020,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -8049,14 +8049,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -8078,14 +8078,14 @@
       <c r="E17">
         <v>0.11</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -8127,14 +8127,14 @@
       <c r="E19">
         <v>0.08</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -8176,14 +8176,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -8205,14 +8205,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -8234,14 +8234,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -8263,14 +8263,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>355</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -8292,14 +8292,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -8341,14 +8341,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -8390,14 +8390,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -8419,14 +8419,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -8448,14 +8448,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -8477,14 +8477,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -8528,13 +8528,13 @@
         <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>65</v>
@@ -8556,14 +8556,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -8625,14 +8625,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -8654,14 +8654,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -8683,14 +8683,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -8712,14 +8712,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -8741,14 +8741,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -8790,14 +8790,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -8839,14 +8839,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -8868,14 +8868,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -8897,14 +8897,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -8926,14 +8926,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -8955,14 +8955,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -9004,14 +9004,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -9053,14 +9053,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -9082,14 +9082,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -9111,14 +9111,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -9140,14 +9140,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>355</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -9169,14 +9169,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -9218,14 +9218,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -9267,14 +9267,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -9296,14 +9296,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -9325,14 +9325,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -9354,14 +9354,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>ngDe</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -105,15 +108,12 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>20220325</t>
   </si>
   <si>
+    <t>O.Hensby</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
@@ -162,7 +162,7 @@
     <t>C:\IES Shared Content\Weather\HeathrowEWY.fwt</t>
   </si>
   <si>
-    <t>60.0 minutes</t>
+    <t>30.0 minutes</t>
   </si>
   <si>
     <t>31</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 13:28:13.405148</t>
+    <t>2022-03-25 18:21:17.483785</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +435,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,7 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -601,10 +609,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,7 +632,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -642,7 +650,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -660,7 +668,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -671,7 +679,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -682,7 +690,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -700,7 +708,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -718,7 +726,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,7 +744,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -754,7 +762,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -772,7 +780,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -790,7 +798,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1119,7 +1127,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -1133,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1150,10 +1158,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -1167,10 +1175,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1184,10 +1192,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1201,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1218,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -1235,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1252,10 +1260,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -1269,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1286,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1438,10 +1446,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -1467,10 +1475,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -1496,10 +1504,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90.5</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -1554,10 +1562,10 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -1603,10 +1611,10 @@
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -1652,10 +1660,10 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
+        <v>9.79</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>321.5</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -1681,10 +1689,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -1710,10 +1718,10 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.39</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>308.5</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -1739,10 +1747,10 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="H16">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -1768,10 +1776,10 @@
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.4</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -1817,10 +1825,10 @@
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -1895,10 +1903,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -1924,10 +1932,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -1953,10 +1961,10 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>10.78</v>
+        <v>10.81</v>
       </c>
       <c r="H24">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -1982,10 +1990,10 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -2031,10 +2039,10 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -2080,7 +2088,7 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -2109,10 +2117,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -2138,10 +2146,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -2167,10 +2175,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.28</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -2315,10 +2323,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -2344,10 +2352,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -2373,10 +2381,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90.5</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -2431,10 +2439,10 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479.5</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -2480,10 +2488,10 @@
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -2529,10 +2537,10 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
+        <v>9.79</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>321.5</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -2558,10 +2566,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -2587,10 +2595,10 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.39</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>308.5</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -2645,10 +2653,10 @@
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -2694,10 +2702,10 @@
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -2743,10 +2751,10 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.78</v>
+        <v>10.81</v>
       </c>
       <c r="H21">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -2772,10 +2780,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -2801,10 +2809,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.2</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -2830,10 +2838,10 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="H24">
-        <v>354</v>
+        <v>354.5</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -2859,10 +2867,10 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.18</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -2908,10 +2916,10 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -2957,10 +2965,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.3</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -2986,10 +2994,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3015,10 +3023,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -3044,10 +3052,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.28</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -3123,10 +3131,10 @@
         <v>130</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
+        <v>8.42</v>
       </c>
       <c r="H2">
-        <v>277</v>
+        <v>276.5</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -3192,10 +3200,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -3221,10 +3229,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -3250,10 +3258,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -3279,10 +3287,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="H8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -3308,10 +3316,10 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479.5</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -3357,10 +3365,10 @@
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -3435,10 +3443,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -3464,10 +3472,10 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.39</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>308.5</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -3522,10 +3530,10 @@
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -3571,10 +3579,10 @@
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -3620,10 +3628,10 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="H21">
-        <v>354</v>
+        <v>354.5</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -3649,10 +3657,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.41</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>342</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -3678,10 +3686,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.18</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>334.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -3707,10 +3715,10 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>10.75</v>
+        <v>10.79</v>
       </c>
       <c r="H24">
-        <v>353</v>
+        <v>354.5</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -3736,10 +3744,10 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.18</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -3785,10 +3793,10 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -3834,10 +3842,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.3</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -3863,10 +3871,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -3892,10 +3900,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -3921,10 +3929,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.3</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>272.5</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -4169,16 +4177,16 @@
         <v>129</v>
       </c>
       <c r="E2">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
+        <v>8.46</v>
       </c>
       <c r="H2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -4198,7 +4206,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <v>7.79</v>
+        <v>8.02</v>
       </c>
       <c r="I3" t="s">
         <v>130</v>
@@ -4218,7 +4226,7 @@
         <v>130</v>
       </c>
       <c r="E4">
-        <v>8.09</v>
+        <v>8.32</v>
       </c>
       <c r="I4" t="s">
         <v>130</v>
@@ -4244,10 +4252,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.06</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -4273,10 +4281,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -4302,10 +4310,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -4331,10 +4339,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -4360,10 +4368,10 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.61</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -4383,7 +4391,7 @@
         <v>130</v>
       </c>
       <c r="E10">
-        <v>26.04</v>
+        <v>26.07</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
@@ -4403,16 +4411,16 @@
         <v>130</v>
       </c>
       <c r="E11">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -4432,7 +4440,7 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <v>26.34</v>
+        <v>26.37</v>
       </c>
       <c r="I12" t="s">
         <v>130</v>
@@ -4458,7 +4466,7 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.859999999999999</v>
+        <v>9.86</v>
       </c>
       <c r="H13">
         <v>324</v>
@@ -4481,16 +4489,16 @@
         <v>129</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="F14" t="s">
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
       <c r="H14">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -4545,10 +4553,10 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="H16">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -4568,7 +4576,7 @@
         <v>130</v>
       </c>
       <c r="E17">
-        <v>12.91</v>
+        <v>12.88</v>
       </c>
       <c r="F17" t="s">
         <v>130</v>
@@ -4597,7 +4605,7 @@
         <v>130</v>
       </c>
       <c r="E18">
-        <v>28.31</v>
+        <v>28.46</v>
       </c>
       <c r="I18" t="s">
         <v>130</v>
@@ -4617,16 +4625,16 @@
         <v>130</v>
       </c>
       <c r="E19">
-        <v>13.43</v>
+        <v>13.51</v>
       </c>
       <c r="F19" t="s">
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -4646,7 +4654,7 @@
         <v>130</v>
       </c>
       <c r="E20">
-        <v>28.61</v>
+        <v>28.68</v>
       </c>
       <c r="I20" t="s">
         <v>130</v>
@@ -4666,16 +4674,16 @@
         <v>129</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F21" t="s">
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.9</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -4695,16 +4703,16 @@
         <v>129</v>
       </c>
       <c r="E22">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="F22" t="s">
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.5</v>
+        <v>10.58</v>
       </c>
       <c r="H22">
-        <v>345</v>
+        <v>347.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -4724,16 +4732,16 @@
         <v>129</v>
       </c>
       <c r="E23">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F23" t="s">
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -4753,16 +4761,16 @@
         <v>129</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
       </c>
       <c r="G24">
-        <v>10.9</v>
+        <v>10.87</v>
       </c>
       <c r="H24">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -4782,16 +4790,16 @@
         <v>130</v>
       </c>
       <c r="E25">
-        <v>5.58</v>
+        <v>5.66</v>
       </c>
       <c r="F25" t="s">
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -4811,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="E26">
-        <v>17.75</v>
+        <v>17.3</v>
       </c>
       <c r="I26" t="s">
         <v>130</v>
@@ -4831,16 +4839,16 @@
         <v>130</v>
       </c>
       <c r="E27">
-        <v>5.23</v>
+        <v>5.3</v>
       </c>
       <c r="F27" t="s">
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
+        <v>12.07</v>
       </c>
       <c r="H27">
-        <v>397</v>
+        <v>396.5</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -4860,7 +4868,7 @@
         <v>130</v>
       </c>
       <c r="E28">
-        <v>17.75</v>
+        <v>17.72</v>
       </c>
       <c r="I28" t="s">
         <v>130</v>
@@ -4886,10 +4894,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.31</v>
+        <v>8.33</v>
       </c>
       <c r="H29">
-        <v>273</v>
+        <v>273.5</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -4915,10 +4923,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.34</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -4944,10 +4952,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.05</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>231.5</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -4973,10 +4981,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.31</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>273</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -5075,7 +5083,7 @@
         <v>129</v>
       </c>
       <c r="E3">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -5095,7 +5103,7 @@
         <v>129</v>
       </c>
       <c r="E4">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -5121,10 +5129,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.06</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -5150,10 +5158,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -5179,10 +5187,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -5208,10 +5216,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -5231,16 +5239,16 @@
         <v>130</v>
       </c>
       <c r="E9">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="F9" t="s">
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.61</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -5260,7 +5268,7 @@
         <v>130</v>
       </c>
       <c r="E10">
-        <v>12.57</v>
+        <v>12.49</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
@@ -5280,16 +5288,16 @@
         <v>130</v>
       </c>
       <c r="E11">
-        <v>3.92</v>
+        <v>4.02</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -5309,7 +5317,7 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <v>12.62</v>
+        <v>12.75</v>
       </c>
       <c r="I12" t="s">
         <v>130</v>
@@ -5335,10 +5343,10 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.859999999999999</v>
+        <v>9.88</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>324.5</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -5364,10 +5372,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -5393,10 +5401,10 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>9.470000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="H15">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -5422,7 +5430,7 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -5445,16 +5453,16 @@
         <v>130</v>
       </c>
       <c r="E17">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="F17" t="s">
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.37</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -5474,7 +5482,7 @@
         <v>130</v>
       </c>
       <c r="E18">
-        <v>15.74</v>
+        <v>15.94</v>
       </c>
       <c r="I18" t="s">
         <v>130</v>
@@ -5494,16 +5502,16 @@
         <v>130</v>
       </c>
       <c r="E19">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="F19" t="s">
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -5523,7 +5531,7 @@
         <v>130</v>
       </c>
       <c r="E20">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="I20" t="s">
         <v>130</v>
@@ -5549,10 +5557,10 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.87</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -5578,10 +5586,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.47</v>
+        <v>10.53</v>
       </c>
       <c r="H22">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -5607,10 +5615,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -5636,10 +5644,10 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>10.9</v>
+        <v>10.85</v>
       </c>
       <c r="H24">
-        <v>358</v>
+        <v>356.5</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -5659,16 +5667,16 @@
         <v>129</v>
       </c>
       <c r="E25">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="F25" t="s">
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -5688,7 +5696,7 @@
         <v>130</v>
       </c>
       <c r="E26">
-        <v>5.68</v>
+        <v>5.81</v>
       </c>
       <c r="I26" t="s">
         <v>130</v>
@@ -5708,16 +5716,16 @@
         <v>129</v>
       </c>
       <c r="E27">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="F27" t="s">
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="H27">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -5763,10 +5771,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>273.5</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -5792,10 +5800,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.32</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -5821,10 +5829,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -5850,10 +5858,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.31</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>273</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -5929,10 +5937,10 @@
         <v>130</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
+        <v>8.45</v>
       </c>
       <c r="H2">
-        <v>277</v>
+        <v>277.5</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -5952,7 +5960,7 @@
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -5972,7 +5980,7 @@
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -5998,10 +6006,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -6027,10 +6035,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -6056,10 +6064,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -6085,10 +6093,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -6108,16 +6116,16 @@
         <v>129</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="F9" t="s">
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.61</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -6137,7 +6145,7 @@
         <v>130</v>
       </c>
       <c r="E10">
-        <v>6.33</v>
+        <v>6.11</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
@@ -6157,16 +6165,16 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -6186,7 +6194,7 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <v>6.33</v>
+        <v>6.28</v>
       </c>
       <c r="I12" t="s">
         <v>130</v>
@@ -6212,10 +6220,10 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.83</v>
+        <v>9.88</v>
       </c>
       <c r="H13">
-        <v>323</v>
+        <v>324.5</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -6241,10 +6249,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.63</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>316.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -6299,7 +6307,7 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -6322,16 +6330,16 @@
         <v>129</v>
       </c>
       <c r="E17">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="F17" t="s">
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.37</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -6351,7 +6359,7 @@
         <v>130</v>
       </c>
       <c r="E18">
-        <v>8.140000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="I18" t="s">
         <v>130</v>
@@ -6371,16 +6379,16 @@
         <v>129</v>
       </c>
       <c r="E19">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F19" t="s">
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -6400,7 +6408,7 @@
         <v>130</v>
       </c>
       <c r="E20">
-        <v>8.039999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="I20" t="s">
         <v>130</v>
@@ -6426,10 +6434,10 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.85</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>356.5</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -6455,10 +6463,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.44</v>
+        <v>10.52</v>
       </c>
       <c r="H22">
-        <v>343</v>
+        <v>345.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -6484,10 +6492,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -6513,10 +6521,10 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>10.87</v>
+        <v>10.85</v>
       </c>
       <c r="H24">
-        <v>357</v>
+        <v>356.5</v>
       </c>
       <c r="I24" t="s">
         <v>130</v>
@@ -6536,16 +6544,16 @@
         <v>129</v>
       </c>
       <c r="E25">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="s">
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -6565,7 +6573,7 @@
         <v>129</v>
       </c>
       <c r="E26">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="I26" t="s">
         <v>129</v>
@@ -6585,16 +6593,16 @@
         <v>129</v>
       </c>
       <c r="E27">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F27" t="s">
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="H27">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -6614,7 +6622,7 @@
         <v>129</v>
       </c>
       <c r="E28">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="I28" t="s">
         <v>129</v>
@@ -6640,10 +6648,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -6669,10 +6677,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.32</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -6698,10 +6706,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -6727,10 +6735,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -6875,10 +6883,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -6904,10 +6912,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -6962,10 +6970,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -6985,16 +6993,16 @@
         <v>129</v>
       </c>
       <c r="E9">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F9" t="s">
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -7014,7 +7022,7 @@
         <v>129</v>
       </c>
       <c r="E10">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="I10" t="s">
         <v>129</v>
@@ -7034,16 +7042,16 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F11" t="s">
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.76</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -7063,7 +7071,7 @@
         <v>129</v>
       </c>
       <c r="E12">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I12" t="s">
         <v>129</v>
@@ -7118,10 +7126,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.63</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>316.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -7147,10 +7155,10 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
+        <v>9.42</v>
       </c>
       <c r="H15">
-        <v>310</v>
+        <v>309.5</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -7205,10 +7213,10 @@
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -7228,7 +7236,7 @@
         <v>129</v>
       </c>
       <c r="E18">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
@@ -7248,16 +7256,16 @@
         <v>129</v>
       </c>
       <c r="E19">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F19" t="s">
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -7277,7 +7285,7 @@
         <v>129</v>
       </c>
       <c r="E20">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="s">
         <v>129</v>
@@ -7332,10 +7340,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.44</v>
+        <v>10.52</v>
       </c>
       <c r="H22">
-        <v>343</v>
+        <v>345.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -7361,10 +7369,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -7419,10 +7427,10 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -7517,10 +7525,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.3</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -7546,10 +7554,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.21</v>
+        <v>7.31</v>
       </c>
       <c r="H30">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -7575,10 +7583,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -7604,10 +7612,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.25</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -7752,10 +7760,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -7781,10 +7789,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -7839,10 +7847,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -7868,10 +7876,10 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -7891,7 +7899,7 @@
         <v>129</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="s">
         <v>129</v>
@@ -7917,10 +7925,10 @@
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.76</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -7940,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="E12">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I12" t="s">
         <v>129</v>
@@ -7966,10 +7974,10 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="H13">
-        <v>322</v>
+        <v>322.5</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -7995,10 +8003,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -8024,10 +8032,10 @@
         <v>130</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.42</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>309.5</v>
       </c>
       <c r="I15" t="s">
         <v>130</v>
@@ -8053,10 +8061,10 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
+        <v>9.76</v>
       </c>
       <c r="H16">
-        <v>321</v>
+        <v>320.5</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -8076,16 +8084,16 @@
         <v>129</v>
       </c>
       <c r="E17">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F17" t="s">
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -8105,7 +8113,7 @@
         <v>129</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
@@ -8131,10 +8139,10 @@
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -8180,10 +8188,10 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.81</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -8209,10 +8217,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -8238,10 +8246,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -8296,10 +8304,10 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -8345,10 +8353,10 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.05</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>396</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -8394,10 +8402,10 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.3</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
         <v>130</v>
@@ -8423,10 +8431,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.21</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -8452,10 +8460,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -8481,10 +8489,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>
@@ -8629,10 +8637,10 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -8658,10 +8666,10 @@
         <v>130</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
         <v>130</v>
@@ -8687,10 +8695,10 @@
         <v>130</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90.5</v>
       </c>
       <c r="I7" t="s">
         <v>130</v>
@@ -8716,10 +8724,10 @@
         <v>130</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="I8" t="s">
         <v>130</v>
@@ -8745,10 +8753,10 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -8794,10 +8802,10 @@
         <v>130</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.76</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
         <v>130</v>
@@ -8843,10 +8851,10 @@
         <v>130</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
+        <v>9.79</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>321.5</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
@@ -8872,10 +8880,10 @@
         <v>130</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -8930,10 +8938,10 @@
         <v>130</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
+        <v>9.76</v>
       </c>
       <c r="H16">
-        <v>321</v>
+        <v>320.5</v>
       </c>
       <c r="I16" t="s">
         <v>130</v>
@@ -8959,10 +8967,10 @@
         <v>130</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.4</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -9008,10 +9016,10 @@
         <v>130</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
         <v>130</v>
@@ -9057,10 +9065,10 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.81</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
         <v>130</v>
@@ -9086,10 +9094,10 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
@@ -9115,10 +9123,10 @@
         <v>130</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -9173,10 +9181,10 @@
         <v>130</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
@@ -9222,10 +9230,10 @@
         <v>130</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
@@ -9271,7 +9279,7 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -9300,10 +9308,10 @@
         <v>130</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
         <v>130</v>
@@ -9329,10 +9337,10 @@
         <v>130</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
         <v>130</v>
@@ -9358,10 +9366,10 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
         <v>130</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>sheet_name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -105,15 +105,15 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
+    <t>20220325</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -162,7 +162,7 @@
     <t>C:\IES Shared Content\Weather\HeathrowEWY.fwt</t>
   </si>
   <si>
-    <t>60.0 minutes</t>
+    <t>30.0 minutes</t>
   </si>
   <si>
     <t>31</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 13:28:13.405148</t>
+    <t>2022-03-25 19:32:56.180669</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -414,10 +414,10 @@
     <t>A_04_XX_XX_ApartmentN2</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -602,9 +602,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1357,16 +1357,16 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>8.43</v>
@@ -1375,7 +1375,7 @@
         <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1386,16 +1386,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1406,16 +1406,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1426,25 +1426,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1487,22 +1487,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90.5</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
         <v>4.02</v>
@@ -1531,7 +1531,7 @@
         <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1594,22 +1594,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1623,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1643,22 +1643,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>321.5</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1672,22 +1672,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1701,22 +1701,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>308.5</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1730,22 +1730,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
+        <v>9.74</v>
       </c>
       <c r="H16">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1759,22 +1759,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.4</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1808,22 +1808,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1837,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1857,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
         <v>10.81</v>
@@ -1872,7 +1872,7 @@
         <v>355</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1915,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1944,22 +1944,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>10.78</v>
+        <v>10.81</v>
       </c>
       <c r="H24">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2022,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2051,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
         <v>8.279999999999999</v>
@@ -2086,7 +2086,7 @@
         <v>272</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2100,22 +2100,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2158,22 +2158,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2234,16 +2234,16 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>8.43</v>
@@ -2252,7 +2252,7 @@
         <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2263,16 +2263,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2283,16 +2283,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2303,25 +2303,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2335,22 +2335,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2364,22 +2364,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90.5</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
         <v>4.02</v>
@@ -2408,7 +2408,7 @@
         <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479.5</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2471,22 +2471,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2500,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2520,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>321.5</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2549,22 +2549,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2578,22 +2578,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>308.5</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2607,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>9.74</v>
@@ -2622,7 +2622,7 @@
         <v>320</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2665,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2714,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2734,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.78</v>
+        <v>10.81</v>
       </c>
       <c r="H21">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.2</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2821,22 +2821,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="H24">
-        <v>354</v>
+        <v>354.5</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2850,22 +2850,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.18</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2899,22 +2899,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2948,22 +2948,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2977,22 +2977,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3006,22 +3006,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3035,22 +3035,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3111,25 +3111,25 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
+        <v>8.42</v>
       </c>
       <c r="H2">
-        <v>277</v>
+        <v>276.5</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3140,16 +3140,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3160,16 +3160,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3180,25 +3180,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3212,22 +3212,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3241,22 +3241,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3270,22 +3270,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="H8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3299,22 +3299,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.6</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479.5</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3348,22 +3348,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3377,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3397,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
         <v>9.77</v>
@@ -3412,7 +3412,7 @@
         <v>321</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3455,22 +3455,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>308.5</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>9.74</v>
@@ -3499,7 +3499,7 @@
         <v>320</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3513,22 +3513,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3542,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3562,22 +3562,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3611,22 +3611,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="H21">
-        <v>354</v>
+        <v>354.5</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3640,22 +3640,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.41</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>342</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.18</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>334.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3698,22 +3698,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>10.75</v>
+        <v>10.79</v>
       </c>
       <c r="H24">
-        <v>353</v>
+        <v>354.5</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3727,22 +3727,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.18</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3776,22 +3776,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3805,13 +3805,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3825,22 +3825,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3854,22 +3854,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3883,22 +3883,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3912,22 +3912,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>272.5</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4163,25 +4163,25 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>129</v>
       </c>
       <c r="E2">
-        <v>2.45</v>
+        <v>11.14</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="H2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4192,16 +4192,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>7.79</v>
+        <v>27.43</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4212,16 +4212,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>8.09</v>
+        <v>27.9</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4232,25 +4232,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.06</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4264,22 +4264,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4293,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4322,22 +4322,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>10.59</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.61</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4380,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>26.04</v>
+        <v>26.07</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4400,22 +4400,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4429,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12">
-        <v>26.34</v>
+        <v>26.37</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4449,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
         <v>9.859999999999999</v>
@@ -4464,7 +4464,7 @@
         <v>324</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4478,22 +4478,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.65</v>
+        <v>9.68</v>
       </c>
       <c r="H14">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0.14</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
         <v>9.44</v>
@@ -4522,7 +4522,7 @@
         <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4536,22 +4536,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="H16">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17">
-        <v>12.91</v>
+        <v>12.88</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
         <v>15.37</v>
@@ -4580,7 +4580,7 @@
         <v>505</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4594,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18">
-        <v>28.31</v>
+        <v>28.46</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4614,22 +4614,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19">
-        <v>13.43</v>
+        <v>13.51</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4643,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20">
-        <v>28.61</v>
+        <v>28.68</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4663,22 +4663,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.9</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.5</v>
+        <v>10.58</v>
       </c>
       <c r="H22">
-        <v>345</v>
+        <v>347.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4721,22 +4721,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4750,22 +4750,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>10.9</v>
+        <v>10.87</v>
       </c>
       <c r="H24">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4779,22 +4779,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25">
-        <v>5.58</v>
+        <v>5.66</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4808,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>17.75</v>
+        <v>17.3</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4828,22 +4828,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27">
-        <v>5.23</v>
+        <v>5.3</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
+        <v>12.07</v>
       </c>
       <c r="H27">
-        <v>397</v>
+        <v>396.5</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4857,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28">
-        <v>17.75</v>
+        <v>17.72</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4877,22 +4877,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.31</v>
+        <v>8.33</v>
       </c>
       <c r="H29">
-        <v>273</v>
+        <v>273.5</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4906,22 +4906,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.34</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4935,22 +4935,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.05</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>231.5</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4964,22 +4964,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.31</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>273</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5040,16 +5040,16 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>129</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>4.43</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>8.43</v>
@@ -5058,7 +5058,7 @@
         <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5069,13 +5069,13 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>1.71</v>
+        <v>13.95</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -5089,13 +5089,13 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>1.76</v>
+        <v>14.48</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -5109,25 +5109,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.06</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5141,22 +5141,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5170,22 +5170,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5199,22 +5199,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5228,22 +5228,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.61</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5257,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>12.57</v>
+        <v>12.49</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5277,22 +5277,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>3.92</v>
+        <v>4.02</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5306,13 +5306,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12">
-        <v>12.62</v>
+        <v>12.75</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5326,22 +5326,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
-        <v>9.859999999999999</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>324.5</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5355,22 +5355,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5384,22 +5384,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>9.470000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="H15">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5413,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>9.800000000000001</v>
@@ -5428,7 +5428,7 @@
         <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5442,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.37</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5471,13 +5471,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18">
-        <v>15.74</v>
+        <v>15.94</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5491,22 +5491,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5520,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20">
-        <v>15.84</v>
+        <v>16.11</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.87</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5569,22 +5569,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.47</v>
+        <v>10.53</v>
       </c>
       <c r="H22">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5598,22 +5598,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5627,22 +5627,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>10.9</v>
+        <v>10.85</v>
       </c>
       <c r="H24">
-        <v>358</v>
+        <v>356.5</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5656,22 +5656,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.21</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>401</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5685,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>5.68</v>
+        <v>5.81</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5705,22 +5705,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="H27">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5734,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28">
         <v>5.73</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5754,22 +5754,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>273.5</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5783,22 +5783,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.32</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5812,22 +5812,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5841,22 +5841,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.31</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>273</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5917,25 +5917,25 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>0.08</v>
+        <v>1.96</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>8.43</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H2">
-        <v>277</v>
+        <v>277.5</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5946,13 +5946,13 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>6.64</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -5966,13 +5966,13 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>6.81</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -5986,25 +5986,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6018,22 +6018,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6047,22 +6047,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6076,22 +6076,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>4.08</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>134</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6105,22 +6105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.61</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6134,13 +6134,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>6.33</v>
+        <v>6.11</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6154,22 +6154,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.75</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>484.5</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6183,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12">
-        <v>6.33</v>
+        <v>6.28</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6203,22 +6203,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
-        <v>9.83</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H13">
-        <v>323</v>
+        <v>324.5</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>316.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6261,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
         <v>9.44</v>
@@ -6276,7 +6276,7 @@
         <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6290,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>9.800000000000001</v>
@@ -6305,7 +6305,7 @@
         <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6319,22 +6319,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.37</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6348,13 +6348,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18">
-        <v>8.140000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6368,22 +6368,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.43</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6397,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20">
-        <v>8.039999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6417,22 +6417,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.85</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>356.5</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6446,22 +6446,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.44</v>
+        <v>10.52</v>
       </c>
       <c r="H22">
-        <v>343</v>
+        <v>345.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6475,22 +6475,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.26</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>10.87</v>
+        <v>10.85</v>
       </c>
       <c r="H24">
-        <v>357</v>
+        <v>356.5</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6533,22 +6533,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6562,13 +6562,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
       <c r="H27">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6611,13 +6611,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6631,22 +6631,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6660,22 +6660,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.32</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>240.5</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6689,22 +6689,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6718,22 +6718,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6794,16 +6794,16 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>8.43</v>
@@ -6812,7 +6812,7 @@
         <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6823,16 +6823,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6843,16 +6843,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6863,25 +6863,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6895,22 +6895,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6924,13 +6924,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>2.77</v>
@@ -6939,7 +6939,7 @@
         <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6953,22 +6953,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6982,22 +6982,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7011,13 +7011,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7031,22 +7031,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.73</v>
+        <v>14.76</v>
       </c>
       <c r="H11">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7060,13 +7060,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7080,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
         <v>9.83</v>
@@ -7095,7 +7095,7 @@
         <v>323</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7109,22 +7109,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>316.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7138,22 +7138,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
+        <v>9.42</v>
       </c>
       <c r="H15">
-        <v>310</v>
+        <v>309.5</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7167,13 +7167,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>9.77</v>
@@ -7182,7 +7182,7 @@
         <v>321</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7196,22 +7196,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0.74</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7225,13 +7225,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7245,22 +7245,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7274,13 +7274,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7294,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
         <v>10.84</v>
@@ -7309,7 +7309,7 @@
         <v>356</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7323,22 +7323,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.44</v>
+        <v>10.52</v>
       </c>
       <c r="H22">
-        <v>343</v>
+        <v>345.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7352,22 +7352,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7381,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
         <v>10.84</v>
@@ -7396,7 +7396,7 @@
         <v>356</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7410,22 +7410,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7439,13 +7439,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7459,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
         <v>12.05</v>
@@ -7474,7 +7474,7 @@
         <v>396</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7488,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7508,22 +7508,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7537,22 +7537,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.21</v>
+        <v>7.31</v>
       </c>
       <c r="H30">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7566,22 +7566,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230.5</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7595,22 +7595,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.25</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -7671,16 +7671,16 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>8.43</v>
@@ -7689,7 +7689,7 @@
         <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7700,16 +7700,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7720,16 +7720,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7740,25 +7740,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7801,13 +7801,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>2.77</v>
@@ -7816,7 +7816,7 @@
         <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7830,22 +7830,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>4.06</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>133.5</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7859,22 +7859,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7888,13 +7888,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7908,22 +7908,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0.05</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.76</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7937,13 +7937,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7957,22 +7957,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
-        <v>9.800000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="H13">
-        <v>322</v>
+        <v>322.5</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7986,22 +7986,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8015,22 +8015,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
-        <v>9.41</v>
+        <v>9.42</v>
       </c>
       <c r="H15">
-        <v>309</v>
+        <v>309.5</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8044,22 +8044,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
+        <v>9.76</v>
       </c>
       <c r="H16">
-        <v>321</v>
+        <v>320.5</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8073,22 +8073,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>505.5</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8102,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8122,22 +8122,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>0.08</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8151,13 +8151,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>0.55</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -8171,22 +8171,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.81</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8200,22 +8200,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -8229,22 +8229,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -8258,13 +8258,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
         <v>10.81</v>
@@ -8273,7 +8273,7 @@
         <v>355</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -8287,22 +8287,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8316,13 +8316,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8336,22 +8336,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.05</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>396</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8365,13 +8365,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8385,22 +8385,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H29">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8414,22 +8414,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.21</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8443,22 +8443,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8472,22 +8472,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8548,16 +8548,16 @@
         <v>98</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>8.43</v>
@@ -8566,7 +8566,7 @@
         <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8577,16 +8577,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8597,16 +8597,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8617,25 +8617,25 @@
         <v>101</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8649,22 +8649,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8678,22 +8678,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>90.5</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8707,22 +8707,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8736,22 +8736,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>14.64</v>
+        <v>14.58</v>
       </c>
       <c r="H9">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8785,22 +8785,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11">
-        <v>14.7</v>
+        <v>14.76</v>
       </c>
       <c r="H11">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8814,13 +8814,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8834,22 +8834,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>321.5</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8863,22 +8863,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>9.619999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>316</v>
+        <v>315.5</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8892,13 +8892,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15">
         <v>9.41</v>
@@ -8907,7 +8907,7 @@
         <v>309</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8921,22 +8921,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16">
-        <v>9.77</v>
+        <v>9.76</v>
       </c>
       <c r="H16">
-        <v>321</v>
+        <v>320.5</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8950,22 +8950,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>15.34</v>
+        <v>15.4</v>
       </c>
       <c r="H17">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8979,13 +8979,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8999,22 +8999,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="H19">
-        <v>508</v>
+        <v>506.5</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9028,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -9048,22 +9048,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21">
-        <v>10.84</v>
+        <v>10.81</v>
       </c>
       <c r="H21">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9077,22 +9077,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22">
-        <v>10.38</v>
+        <v>10.49</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>344.5</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -9106,22 +9106,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>335.5</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -9135,13 +9135,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24">
         <v>10.81</v>
@@ -9150,7 +9150,7 @@
         <v>355</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -9164,22 +9164,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25">
-        <v>12.24</v>
+        <v>12.16</v>
       </c>
       <c r="H25">
-        <v>402</v>
+        <v>399.5</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -9193,13 +9193,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -9213,22 +9213,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="H27">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -9262,13 +9262,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29">
         <v>8.279999999999999</v>
@@ -9277,7 +9277,7 @@
         <v>272</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -9291,22 +9291,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -9320,22 +9320,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -9349,22 +9349,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32">
-        <v>8.34</v>
+        <v>8.26</v>
       </c>
       <c r="H32">
-        <v>274</v>
+        <v>271.5</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,6 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -105,13 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>20220422</t>
   </si>
   <si>
     <t>index</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 19:32:56.180669</t>
+    <t>2022-04-22 12:42:30.496561</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="JobNo"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1119,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1150,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1167,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1184,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1218,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1235,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1252,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1286,10 +1286,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="129">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220614</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220316</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-16 17:29:21.078931</t>
+    <t>2022-06-14 16:11:12.426261</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -595,10 +595,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Author"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,11 +611,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -629,11 +629,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -647,11 +647,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -687,11 +687,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -705,11 +705,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -723,11 +723,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,11 +741,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -759,11 +759,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -777,11 +777,11 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
     <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1325,19 +1325,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -1353,20 +1353,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -1382,11 +1382,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -1402,11 +1402,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -1422,20 +1422,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -1451,20 +1451,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -1480,20 +1480,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -1509,20 +1509,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -1538,20 +1538,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -1567,11 +1567,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -1587,20 +1587,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -1616,11 +1616,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -1636,20 +1636,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -1665,20 +1665,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -1694,20 +1694,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -1723,20 +1723,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -1752,20 +1752,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -1781,11 +1781,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -1801,20 +1801,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -1830,11 +1830,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1850,20 +1850,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.81</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>355</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -1879,20 +1879,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -1908,20 +1908,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -1937,20 +1937,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.78</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>354</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -1966,20 +1966,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -1995,11 +1995,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2015,20 +2015,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2044,11 +2044,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2064,20 +2064,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2093,20 +2093,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2122,20 +2122,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -2151,20 +2151,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -2202,19 +2202,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -2230,20 +2230,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -2259,11 +2259,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -2279,11 +2279,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -2299,20 +2299,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -2328,20 +2328,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.92</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -2357,20 +2357,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -2386,20 +2386,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -2415,20 +2415,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -2444,11 +2444,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -2464,20 +2464,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2493,11 +2493,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -2513,20 +2513,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -2542,20 +2542,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -2571,20 +2571,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -2600,20 +2600,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.74</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>320</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -2629,20 +2629,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -2658,11 +2658,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -2678,20 +2678,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -2707,11 +2707,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -2727,20 +2727,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.78</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -2756,20 +2756,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -2785,20 +2785,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -2814,20 +2814,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.78</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>354</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -2843,20 +2843,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2872,11 +2872,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2892,20 +2892,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2921,11 +2921,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2941,20 +2941,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2970,20 +2970,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2999,20 +2999,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3028,20 +3028,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -3079,19 +3079,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -3107,20 +3107,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -3136,11 +3136,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -3156,11 +3156,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -3176,20 +3176,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -3205,20 +3205,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.92</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -3234,20 +3234,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -3263,20 +3263,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>3.99</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>131</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -3292,20 +3292,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -3321,11 +3321,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -3341,20 +3341,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -3370,11 +3370,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -3390,20 +3390,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -3419,20 +3419,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -3448,20 +3448,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -3477,20 +3477,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.74</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>320</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -3506,20 +3506,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -3535,11 +3535,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -3555,20 +3555,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -3584,11 +3584,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -3604,20 +3604,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.78</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -3633,20 +3633,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.41</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>342</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -3662,20 +3662,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -3691,20 +3691,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.75</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>353</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -3720,20 +3720,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -3749,11 +3749,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3769,20 +3769,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -3798,11 +3798,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -3818,20 +3818,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -3847,20 +3847,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3876,20 +3876,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3905,20 +3905,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -4123,19 +4123,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -4151,20 +4151,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>2.45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -4180,11 +4180,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3">
         <v>7.79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -4200,11 +4200,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4">
         <v>8.09</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -4220,20 +4220,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -4249,20 +4249,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -4278,20 +4278,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.8</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -4307,20 +4307,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -4336,20 +4336,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
         <v>10.59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>128</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -4365,11 +4365,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>26.04</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -4385,20 +4385,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
         <v>11.57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>128</v>
       </c>
       <c r="F11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -4414,11 +4414,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>26.34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -4434,20 +4434,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.859999999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -4463,20 +4463,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
         <v>0.6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
       </c>
       <c r="F14">
         <v>9.65</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>317</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -4492,20 +4492,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
         <v>0.14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
       </c>
       <c r="F15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -4521,20 +4521,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -4550,20 +4550,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
         <v>12.91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
       </c>
       <c r="F17">
         <v>15.37</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>505</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -4579,11 +4579,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>28.31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -4599,20 +4599,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
         <v>13.43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -4628,11 +4628,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>28.61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -4648,20 +4648,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
         <v>0.03</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
       </c>
       <c r="F21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -4677,20 +4677,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
         <v>1.58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
       </c>
       <c r="F22">
         <v>10.5</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>345</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -4706,20 +4706,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
         <v>0.35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
       </c>
       <c r="F23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -4735,20 +4735,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
         <v>0.03</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
       </c>
       <c r="F24">
         <v>10.9</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>358</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -4764,20 +4764,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25">
         <v>5.58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
       </c>
       <c r="F25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -4793,11 +4793,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26">
         <v>17.75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -4813,20 +4813,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27">
         <v>5.23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>128</v>
       </c>
       <c r="F27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -4842,11 +4842,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
         <v>17.75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -4862,20 +4862,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.31</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>273</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -4891,20 +4891,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -4920,20 +4920,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -4949,20 +4949,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.31</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>273</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5000,19 +5000,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5028,20 +5028,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5057,11 +5057,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>1.71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5077,11 +5077,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>1.76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5097,20 +5097,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -5126,20 +5126,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -5155,20 +5155,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -5184,20 +5184,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -5213,20 +5213,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9">
         <v>4.25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>128</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -5242,11 +5242,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>12.57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -5262,20 +5262,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
         <v>3.92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>128</v>
       </c>
       <c r="F11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -5291,11 +5291,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>12.62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -5311,20 +5311,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.859999999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -5340,20 +5340,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -5369,20 +5369,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.470000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>311</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -5398,20 +5398,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -5427,20 +5427,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
         <v>5.34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -5456,11 +5456,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>15.74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -5476,20 +5476,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
         <v>5.15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5505,11 +5505,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>15.84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -5525,20 +5525,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -5554,20 +5554,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.47</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>344</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -5583,20 +5583,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -5612,20 +5612,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.9</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>358</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -5641,20 +5641,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>1.63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
       </c>
       <c r="F25">
         <v>12.21</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>401</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -5670,11 +5670,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26">
         <v>5.68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -5690,20 +5690,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>1.14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
       </c>
       <c r="F27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -5719,11 +5719,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
         <v>5.73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -5739,20 +5739,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -5768,20 +5768,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -5797,20 +5797,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -5826,20 +5826,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.31</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>273</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5877,19 +5877,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5905,20 +5905,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
         <v>0.08</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5934,11 +5934,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
         <v>0.15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5954,11 +5954,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
         <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5974,20 +5974,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6003,20 +6003,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6032,20 +6032,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6061,20 +6061,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.08</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>134</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6090,20 +6090,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>1.8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6119,11 +6119,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
         <v>6.33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -6139,20 +6139,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>1.63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
       </c>
       <c r="F11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -6168,11 +6168,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
         <v>6.33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -6188,20 +6188,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.83</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -6217,20 +6217,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -6246,20 +6246,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -6275,20 +6275,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.800000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -6304,20 +6304,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>2.53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -6333,11 +6333,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
         <v>8.140000000000001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6353,20 +6353,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>2.15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -6382,11 +6382,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20">
         <v>8.039999999999999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6402,20 +6402,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -6431,20 +6431,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.44</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>343</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -6460,20 +6460,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.26</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -6489,20 +6489,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.87</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>357</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -6518,20 +6518,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
         <v>0.54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
       </c>
       <c r="F25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -6547,11 +6547,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
         <v>2.11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -6567,20 +6567,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
         <v>0.35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
       </c>
       <c r="F27">
         <v>12.09</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>397</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -6596,11 +6596,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
         <v>2.06</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -6616,20 +6616,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -6645,20 +6645,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -6674,20 +6674,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -6703,20 +6703,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -6754,19 +6754,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -6782,20 +6782,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -6811,11 +6811,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -6831,11 +6831,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -6851,20 +6851,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6880,20 +6880,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6909,20 +6909,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6938,20 +6938,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6967,20 +6967,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
         <v>0.44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6996,11 +6996,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>1.56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7016,20 +7016,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
       </c>
       <c r="F11">
         <v>14.73</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>484</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7045,11 +7045,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>1.56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7065,20 +7065,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.83</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>323</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7094,20 +7094,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -7123,20 +7123,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.44</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>310</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -7152,20 +7152,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -7181,20 +7181,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>0.74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -7210,11 +7210,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>2.36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -7230,20 +7230,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>0.54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -7259,11 +7259,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>2.36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -7279,20 +7279,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -7308,20 +7308,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.44</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>343</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -7337,20 +7337,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -7366,20 +7366,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.84</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>356</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -7395,20 +7395,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -7424,11 +7424,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -7444,20 +7444,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.05</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -7473,11 +7473,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -7493,20 +7493,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -7522,20 +7522,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.21</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -7551,20 +7551,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -7580,20 +7580,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -7631,19 +7631,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -7659,20 +7659,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -7688,11 +7688,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -7708,11 +7708,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -7728,20 +7728,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -7757,20 +7757,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -7786,20 +7786,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -7815,20 +7815,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -7844,20 +7844,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7873,11 +7873,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>0.1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7893,20 +7893,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
         <v>0.05</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
       </c>
       <c r="F11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7922,11 +7922,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
         <v>0.15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7942,20 +7942,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.800000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>322</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7971,20 +7971,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8000,20 +8000,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8029,20 +8029,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8058,20 +8058,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
         <v>0.11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8087,11 +8087,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
         <v>0.5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8107,20 +8107,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
         <v>0.08</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -8136,11 +8136,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>0.55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -8156,20 +8156,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -8185,20 +8185,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -8214,20 +8214,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -8243,20 +8243,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.81</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>355</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -8272,20 +8272,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -8301,11 +8301,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -8321,20 +8321,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.05</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -8350,11 +8350,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8370,20 +8370,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -8399,20 +8399,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.21</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>237</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -8428,20 +8428,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -8457,20 +8457,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -8508,19 +8508,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -8536,20 +8536,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>8.43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -8565,11 +8565,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -8585,11 +8585,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -8605,20 +8605,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4.14</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5">
         <v>136</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -8634,20 +8634,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.95</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
         <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -8663,20 +8663,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.77</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -8692,20 +8692,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>4.02</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8">
         <v>132</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -8721,20 +8721,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>14.64</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
         <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -8750,11 +8750,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -8770,20 +8770,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>14.7</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
         <v>483</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -8799,11 +8799,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -8819,20 +8819,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>9.77</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13">
         <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -8848,20 +8848,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>9.619999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8877,20 +8877,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9.41</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15">
         <v>309</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8906,20 +8906,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>9.77</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
         <v>321</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8935,20 +8935,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>15.34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17">
         <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8964,11 +8964,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8984,20 +8984,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15.46</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
         <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -9013,11 +9013,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -9033,20 +9033,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>10.84</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21">
         <v>356</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -9062,20 +9062,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>10.38</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
         <v>341</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -9091,20 +9091,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>10.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23">
         <v>336</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -9120,20 +9120,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10.81</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
         <v>355</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -9149,20 +9149,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>12.24</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
         <v>402</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -9178,11 +9178,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -9198,20 +9198,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>12.02</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
         <v>395</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -9227,11 +9227,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -9247,20 +9247,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>8.279999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -9276,20 +9276,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>7.25</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
         <v>238</v>
-      </c>
-      <c r="H30" t="s">
-        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -9305,20 +9305,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>7.03</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
         <v>231</v>
-      </c>
-      <c r="H31" t="s">
-        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -9334,20 +9334,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>8.34</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
         <v>274</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="129">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,12 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>ngDe</t>
+  </si>
+  <si>
     <t>20220614</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -111,7 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>O.Hensby</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:11:12.426261</t>
+    <t>2022-06-14 16:15:51.852349</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +429,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,10 +603,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,12 +621,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -631,12 +639,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -649,12 +657,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -665,7 +673,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,7 +684,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -689,12 +697,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -707,12 +715,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -725,12 +733,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -743,12 +751,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -761,12 +769,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -779,12 +787,12 @@
     <tableColumn id="3" name="Vulnerable Occupancy"/>
     <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
     <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="7" name="Criterion B (Pass/Fail)"/>
-    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1331,13 +1339,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -1360,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -1429,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -1458,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>97</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -1487,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -1516,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>132</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -1545,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -1594,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>483</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>483</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -1643,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>321</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>321</v>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -1672,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -1701,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>309</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -1730,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>321</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <v>321</v>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -1759,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -1808,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -1857,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>355</v>
+      </c>
+      <c r="G21">
         <v>10.81</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>355</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -1886,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>341</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>341</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -1915,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>336</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -1944,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>354</v>
+      </c>
+      <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>354</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -1973,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>401</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>401</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2022,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>395</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>395</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2071,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2100,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2129,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -2158,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -2208,13 +2216,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -2237,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -2306,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -2335,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>96</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -2364,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -2393,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>132</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -2422,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -2471,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>483</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>483</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2520,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>321</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>321</v>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -2549,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -2578,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>309</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -2607,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>320</v>
+      </c>
+      <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <v>320</v>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -2636,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -2685,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -2734,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>354</v>
+      </c>
+      <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>354</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -2763,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>341</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>341</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -2792,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>336</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -2821,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>354</v>
+      </c>
+      <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>354</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -2850,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>401</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>401</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2899,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>395</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>395</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2948,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2977,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3006,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3035,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -3085,13 +3093,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -3114,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -3183,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -3212,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>96</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -3241,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -3270,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>131</v>
+      </c>
+      <c r="G8">
         <v>3.99</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>131</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -3299,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -3348,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>483</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>483</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -3397,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>321</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>321</v>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -3426,13 +3434,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -3455,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>309</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -3484,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>320</v>
+      </c>
+      <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <v>320</v>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -3513,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -3562,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -3611,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>354</v>
+      </c>
+      <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>354</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -3640,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>342</v>
+      </c>
+      <c r="G22">
         <v>10.41</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>342</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -3669,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>336</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -3698,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>353</v>
+      </c>
+      <c r="G24">
         <v>10.75</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>353</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -3727,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>401</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>401</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -3776,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>395</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>395</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -3825,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -3854,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3883,13 +3891,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3912,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -4129,13 +4137,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -4158,13 +4166,13 @@
         <v>2.45</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -4227,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -4256,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>97</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -4285,13 +4293,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>92</v>
+      </c>
+      <c r="G7">
         <v>2.8</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>92</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -4314,13 +4322,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>134</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>134</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -4343,13 +4351,13 @@
         <v>10.59</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -4392,13 +4400,13 @@
         <v>11.57</v>
       </c>
       <c r="F11">
+        <v>484</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>484</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -4441,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
         <v>324</v>
+      </c>
+      <c r="G13">
+        <v>9.86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -4470,13 +4478,13 @@
         <v>0.6</v>
       </c>
       <c r="F14">
+        <v>317</v>
+      </c>
+      <c r="G14">
         <v>9.65</v>
       </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
-        <v>317</v>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -4499,13 +4507,13 @@
         <v>0.14</v>
       </c>
       <c r="F15">
+        <v>310</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>310</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -4528,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
         <v>322</v>
+      </c>
+      <c r="G16">
+        <v>9.8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -4557,13 +4565,13 @@
         <v>12.91</v>
       </c>
       <c r="F17">
+        <v>505</v>
+      </c>
+      <c r="G17">
         <v>15.37</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>505</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -4606,13 +4614,13 @@
         <v>13.43</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -4655,13 +4663,13 @@
         <v>0.03</v>
       </c>
       <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>356</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -4684,13 +4692,13 @@
         <v>1.58</v>
       </c>
       <c r="F22">
+        <v>345</v>
+      </c>
+      <c r="G22">
         <v>10.5</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>345</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -4713,13 +4721,13 @@
         <v>0.35</v>
       </c>
       <c r="F23">
+        <v>337</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>337</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -4742,13 +4750,13 @@
         <v>0.03</v>
       </c>
       <c r="F24">
+        <v>358</v>
+      </c>
+      <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>358</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -4771,13 +4779,13 @@
         <v>5.58</v>
       </c>
       <c r="F25">
+        <v>401</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>401</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -4820,13 +4828,13 @@
         <v>5.23</v>
       </c>
       <c r="F27">
+        <v>397</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>397</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -4869,13 +4877,13 @@
         <v>0</v>
       </c>
       <c r="F29">
+        <v>273</v>
+      </c>
+      <c r="G29">
         <v>8.31</v>
       </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
-        <v>273</v>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -4898,13 +4906,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -4927,13 +4935,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -4956,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>273</v>
+      </c>
+      <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>273</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5006,13 +5014,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5035,13 +5043,13 @@
         <v>0.6</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5104,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -5133,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>98</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -5162,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -5191,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>134</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>134</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -5220,13 +5228,13 @@
         <v>4.25</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -5269,13 +5277,13 @@
         <v>3.92</v>
       </c>
       <c r="F11">
+        <v>484</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>484</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -5318,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
         <v>324</v>
+      </c>
+      <c r="G13">
+        <v>9.86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -5347,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -5376,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
         <v>311</v>
+      </c>
+      <c r="G15">
+        <v>9.47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -5405,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
         <v>322</v>
+      </c>
+      <c r="G16">
+        <v>9.8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -5434,13 +5442,13 @@
         <v>5.34</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -5483,13 +5491,13 @@
         <v>5.15</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5532,13 +5540,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>356</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -5561,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>344</v>
+      </c>
+      <c r="G22">
         <v>10.47</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>344</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -5590,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>337</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>337</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -5619,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>358</v>
+      </c>
+      <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>358</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -5648,13 +5656,13 @@
         <v>1.63</v>
       </c>
       <c r="F25">
+        <v>401</v>
+      </c>
+      <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>401</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -5697,13 +5705,13 @@
         <v>1.14</v>
       </c>
       <c r="F27">
+        <v>397</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>397</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -5746,13 +5754,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -5775,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -5804,13 +5812,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -5833,13 +5841,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>273</v>
+      </c>
+      <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>273</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5883,13 +5891,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5912,13 +5920,13 @@
         <v>0.08</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5981,13 +5989,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6010,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>98</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6039,13 +6047,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6068,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>134</v>
+      </c>
+      <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>134</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6097,13 +6105,13 @@
         <v>1.8</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6146,13 +6154,13 @@
         <v>1.63</v>
       </c>
       <c r="F11">
+        <v>484</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>484</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -6195,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>323</v>
+      </c>
+      <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>323</v>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -6224,13 +6232,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -6253,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>310</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>310</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -6282,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
         <v>322</v>
+      </c>
+      <c r="G16">
+        <v>9.8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -6311,13 +6319,13 @@
         <v>2.53</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -6337,7 +6345,7 @@
         <v>128</v>
       </c>
       <c r="E18">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6360,13 +6368,13 @@
         <v>2.15</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -6386,7 +6394,7 @@
         <v>128</v>
       </c>
       <c r="E20">
-        <v>8.039999999999999</v>
+        <v>8.04</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6409,13 +6417,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>356</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -6438,13 +6446,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>343</v>
+      </c>
+      <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>343</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -6467,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>337</v>
+      </c>
+      <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>337</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -6496,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>357</v>
+      </c>
+      <c r="G24">
         <v>10.87</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>357</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -6525,13 +6533,13 @@
         <v>0.54</v>
       </c>
       <c r="F25">
+        <v>402</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>402</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -6574,13 +6582,13 @@
         <v>0.35</v>
       </c>
       <c r="F27">
+        <v>397</v>
+      </c>
+      <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>397</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -6623,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -6652,13 +6660,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -6681,13 +6689,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -6710,13 +6718,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -6760,13 +6768,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -6789,13 +6797,13 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -6858,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6887,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>97</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6916,13 +6924,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6945,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>132</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6974,13 +6982,13 @@
         <v>0.44</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7023,13 +7031,13 @@
         <v>0.35</v>
       </c>
       <c r="F11">
+        <v>484</v>
+      </c>
+      <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>484</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7072,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>323</v>
+      </c>
+      <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>323</v>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7101,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -7130,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>310</v>
+      </c>
+      <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>310</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -7159,13 +7167,13 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>321</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <v>321</v>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -7188,13 +7196,13 @@
         <v>0.74</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -7237,13 +7245,13 @@
         <v>0.54</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -7286,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>356</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -7315,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>343</v>
+      </c>
+      <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>343</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -7344,13 +7352,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>336</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -7373,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>356</v>
+      </c>
+      <c r="G24">
         <v>10.84</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>356</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -7402,13 +7410,13 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>402</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>402</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -7451,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>396</v>
+      </c>
+      <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>396</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -7500,13 +7508,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -7529,13 +7537,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>237</v>
+      </c>
+      <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>237</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -7558,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -7587,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -7637,13 +7645,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -7666,13 +7674,13 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -7735,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -7764,13 +7772,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>97</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -7793,13 +7801,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -7822,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>132</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -7851,13 +7859,13 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7900,13 +7908,13 @@
         <v>0.05</v>
       </c>
       <c r="F11">
+        <v>483</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>483</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7949,13 +7957,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
         <v>322</v>
+      </c>
+      <c r="G13">
+        <v>9.8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7978,13 +7986,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8007,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>309</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8036,13 +8044,13 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>321</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <v>321</v>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8065,13 +8073,13 @@
         <v>0.11</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8114,13 +8122,13 @@
         <v>0.08</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -8163,13 +8171,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>356</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -8192,13 +8200,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>341</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>341</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -8221,13 +8229,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>336</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -8250,13 +8258,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>355</v>
+      </c>
+      <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>355</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -8279,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>402</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>402</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -8328,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>396</v>
+      </c>
+      <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>396</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -8377,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -8406,13 +8414,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>237</v>
+      </c>
+      <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>237</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -8435,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -8464,13 +8472,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -8514,13 +8522,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -8543,13 +8551,13 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>277</v>
+      </c>
+      <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2">
-        <v>277</v>
+      <c r="H2" t="s">
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -8612,13 +8620,13 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5">
-        <v>136</v>
+      <c r="H5" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -8641,13 +8649,13 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>97</v>
+      <c r="H6" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -8670,13 +8678,13 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -8699,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8">
-        <v>132</v>
+      <c r="H8" t="s">
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -8728,13 +8736,13 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>481</v>
+      </c>
+      <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>481</v>
+      <c r="H9" t="s">
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -8777,13 +8785,13 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>483</v>
+      </c>
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11">
-        <v>483</v>
+      <c r="H11" t="s">
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -8826,13 +8834,13 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>321</v>
+      </c>
+      <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13">
-        <v>321</v>
+      <c r="H13" t="s">
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -8855,13 +8863,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14">
         <v>316</v>
+      </c>
+      <c r="G14">
+        <v>9.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8884,13 +8892,13 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>309</v>
+      </c>
+      <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15">
-        <v>309</v>
+      <c r="H15" t="s">
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8913,13 +8921,13 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>321</v>
+      </c>
+      <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <v>321</v>
+      <c r="H16" t="s">
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8942,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>504</v>
+      </c>
+      <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17">
-        <v>504</v>
+      <c r="H17" t="s">
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8991,13 +8999,13 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>508</v>
+      </c>
+      <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19">
-        <v>508</v>
+      <c r="H19" t="s">
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -9040,13 +9048,13 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="G21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21">
-        <v>356</v>
+      <c r="H21" t="s">
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -9069,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>341</v>
+      </c>
+      <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>341</v>
+      <c r="H22" t="s">
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -9098,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23">
-        <v>336</v>
+      <c r="H23" t="s">
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -9127,13 +9135,13 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>355</v>
+      </c>
+      <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24">
-        <v>355</v>
+      <c r="H24" t="s">
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -9156,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>402</v>
+      </c>
+      <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="G25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25">
-        <v>402</v>
+      <c r="H25" t="s">
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -9205,13 +9213,13 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>395</v>
+      </c>
+      <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="G27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27">
-        <v>395</v>
+      <c r="H27" t="s">
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -9254,13 +9262,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29">
         <v>272</v>
+      </c>
+      <c r="G29">
+        <v>8.28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -9283,13 +9291,13 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <v>238</v>
+      </c>
+      <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30">
-        <v>238</v>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -9312,13 +9320,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>231</v>
+      </c>
+      <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31">
-        <v>231</v>
+      <c r="H31" t="s">
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -9341,13 +9349,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>274</v>
+      </c>
+      <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32">
-        <v>274</v>
+      <c r="H32" t="s">
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="129">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,12 +72,15 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
     <t>20220614</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>O.Hensby</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:15:51.852349</t>
+    <t>2022-06-14 16:22:50.477831</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -603,10 +595,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,14 +611,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -637,14 +629,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -655,14 +647,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -673,7 +665,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -684,7 +676,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -695,14 +687,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -713,14 +705,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -731,14 +723,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -749,14 +741,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -767,14 +759,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -785,14 +777,14 @@
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Vulnerable Occupancy"/>
-    <tableColumn id="4" name="Criterion A (Pass/Fail)"/>
-    <tableColumn id="5" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
-    <tableColumn id="6" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
+    <tableColumn id="4" name="Criterion A (% Hours Delta T &gt;= 1K)"/>
+    <tableColumn id="5" name="Criterion A (Pass/Fail)"/>
+    <tableColumn id="6" name="Criterion B (Pass/Fail)"/>
     <tableColumn id="7" name="Criterion B (% Hours Operative T &gt; 26 Deg. C)"/>
-    <tableColumn id="8" name="Criterion B (Pass/Fail)"/>
+    <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1127,7 +1119,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1141,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1158,10 +1150,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1175,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1192,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1209,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1226,10 +1218,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1243,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1260,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1277,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1294,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1333,19 +1325,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -1361,20 +1353,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -1390,11 +1382,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -1410,11 +1402,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -1430,20 +1422,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -1459,20 +1451,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>97</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -1488,20 +1480,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -1517,20 +1509,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>132</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -1546,20 +1538,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -1575,11 +1567,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -1595,20 +1587,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>483</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -1624,11 +1616,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -1644,20 +1636,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>321</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
+      <c r="H13">
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -1673,20 +1665,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -1702,20 +1694,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>309</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -1731,20 +1723,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>321</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="H16" t="s">
-        <v>128</v>
+      <c r="H16">
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -1760,20 +1752,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -1789,11 +1781,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -1809,20 +1801,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -1838,11 +1830,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -1858,20 +1850,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>355</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.81</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>355</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -1887,20 +1879,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>341</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -1916,20 +1908,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>336</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -1945,20 +1937,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>354</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>354</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -1974,20 +1966,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>401</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2003,11 +1995,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2023,20 +2015,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>395</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2052,11 +2044,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2072,20 +2064,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2101,20 +2093,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -2130,20 +2122,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -2159,20 +2151,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -2210,19 +2202,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -2238,20 +2230,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -2267,11 +2259,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -2287,11 +2279,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -2307,20 +2299,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -2336,20 +2328,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>96</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -2365,20 +2357,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -2394,20 +2386,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>132</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -2423,20 +2415,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -2452,11 +2444,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -2472,20 +2464,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>483</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -2501,11 +2493,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -2521,20 +2513,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>321</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
+      <c r="H13">
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -2550,20 +2542,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -2579,20 +2571,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>309</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -2608,20 +2600,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>320</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="H16" t="s">
-        <v>128</v>
+      <c r="H16">
+        <v>320</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -2637,20 +2629,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -2666,11 +2658,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -2686,20 +2678,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -2715,11 +2707,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -2735,20 +2727,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>354</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>354</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -2764,20 +2756,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>341</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -2793,20 +2785,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>336</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -2822,20 +2814,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>354</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.78</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>354</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -2851,20 +2843,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>401</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -2880,11 +2872,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -2900,20 +2892,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>395</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -2929,11 +2921,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -2949,20 +2941,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -2978,20 +2970,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3007,20 +2999,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3036,20 +3028,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -3087,19 +3079,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -3115,20 +3107,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -3144,11 +3136,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -3164,11 +3156,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -3184,20 +3176,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -3213,20 +3205,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.92</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>96</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -3242,20 +3234,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -3271,20 +3263,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>131</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>3.99</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>131</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -3300,20 +3292,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -3329,11 +3321,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -3349,20 +3341,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>483</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -3378,11 +3370,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -3398,20 +3390,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>321</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
+      <c r="H13">
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -3427,20 +3419,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -3456,20 +3448,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>309</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -3485,20 +3477,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>320</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16">
         <v>9.74</v>
       </c>
-      <c r="H16" t="s">
-        <v>128</v>
+      <c r="H16">
+        <v>320</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -3514,20 +3506,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -3543,11 +3535,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -3563,20 +3555,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -3592,11 +3584,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -3612,20 +3604,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>354</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.78</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>354</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -3641,20 +3633,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>342</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.41</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>342</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -3670,20 +3662,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>336</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -3699,20 +3691,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>353</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.75</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>353</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -3728,20 +3720,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>401</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -3757,11 +3749,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -3777,20 +3769,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>395</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -3806,11 +3798,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -3826,20 +3818,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -3855,20 +3847,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -3884,20 +3876,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -3913,20 +3905,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -4131,19 +4123,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -4159,20 +4151,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>2.45</v>
       </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -4188,11 +4180,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>7.79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -4208,11 +4200,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>8.09</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -4228,20 +4220,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -4257,20 +4249,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>97</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -4286,20 +4278,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>92</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.8</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>92</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -4315,20 +4307,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>134</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -4344,20 +4336,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>10.59</v>
       </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -4373,11 +4365,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>26.04</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -4393,20 +4385,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>11.57</v>
       </c>
-      <c r="F11">
-        <v>484</v>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -4422,11 +4414,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>26.34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -4442,20 +4434,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="G13">
-        <v>9.86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -4471,20 +4463,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
         <v>0.6</v>
       </c>
-      <c r="F14">
-        <v>317</v>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
       </c>
       <c r="G14">
         <v>9.65</v>
       </c>
-      <c r="H14" t="s">
-        <v>128</v>
+      <c r="H14">
+        <v>317</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -4500,20 +4492,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
+      <c r="D15">
         <v>0.14</v>
       </c>
-      <c r="F15">
-        <v>310</v>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>310</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -4529,20 +4521,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="G16">
-        <v>9.8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -4558,20 +4550,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>12.91</v>
       </c>
-      <c r="F17">
-        <v>505</v>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.37</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>505</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -4587,11 +4579,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>28.31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -4607,20 +4599,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>13.43</v>
       </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -4636,11 +4628,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>28.61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -4656,20 +4648,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
+      <c r="D21">
         <v>0.03</v>
       </c>
-      <c r="F21">
-        <v>356</v>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -4685,20 +4677,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
         <v>1.58</v>
       </c>
-      <c r="F22">
-        <v>345</v>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.5</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>345</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -4714,20 +4706,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
+      <c r="D23">
         <v>0.35</v>
       </c>
-      <c r="F23">
-        <v>337</v>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>337</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -4743,20 +4735,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
+      <c r="D24">
         <v>0.03</v>
       </c>
-      <c r="F24">
-        <v>358</v>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>358</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -4772,20 +4764,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <v>5.58</v>
       </c>
-      <c r="F25">
-        <v>401</v>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -4801,11 +4793,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
         <v>17.75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -4821,20 +4813,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>5.23</v>
       </c>
-      <c r="F27">
-        <v>397</v>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>397</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -4850,11 +4842,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
         <v>17.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -4870,20 +4862,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>273</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
       </c>
       <c r="G29">
         <v>8.31</v>
       </c>
-      <c r="H29" t="s">
-        <v>128</v>
+      <c r="H29">
+        <v>273</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -4899,20 +4891,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -4928,20 +4920,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -4957,20 +4949,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>273</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>273</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5008,19 +5000,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5036,20 +5028,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>0.6</v>
       </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5065,11 +5057,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>1.71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5085,11 +5077,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>1.76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5105,20 +5097,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -5134,20 +5126,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>98</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -5163,20 +5155,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -5192,20 +5184,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>134</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -5221,20 +5213,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>4.25</v>
       </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -5250,11 +5242,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>12.57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -5270,20 +5262,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>3.92</v>
       </c>
-      <c r="F11">
-        <v>484</v>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -5299,11 +5291,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>12.62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -5319,20 +5311,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="H13">
         <v>324</v>
-      </c>
-      <c r="G13">
-        <v>9.86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -5348,20 +5340,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -5377,20 +5369,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="H15">
         <v>311</v>
-      </c>
-      <c r="G15">
-        <v>9.47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -5406,20 +5398,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="G16">
-        <v>9.8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -5435,20 +5427,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>5.34</v>
       </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -5464,11 +5456,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>15.74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -5484,20 +5476,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>5.15</v>
       </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5513,11 +5505,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>15.84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -5533,20 +5525,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>356</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -5562,20 +5554,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>344</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.47</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>344</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -5591,20 +5583,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>337</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>337</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -5620,20 +5612,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>358</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.9</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>358</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -5649,20 +5641,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <v>1.63</v>
       </c>
-      <c r="F25">
-        <v>401</v>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.21</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -5678,11 +5670,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
         <v>5.68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -5698,20 +5690,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>1.14</v>
       </c>
-      <c r="F27">
-        <v>397</v>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>397</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -5727,11 +5719,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
         <v>5.73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
@@ -5747,20 +5739,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -5776,20 +5768,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -5805,20 +5797,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -5834,20 +5826,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>273</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.31</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>273</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -5885,19 +5877,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -5913,20 +5905,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>0.08</v>
       </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -5942,11 +5934,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>0.15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -5962,11 +5954,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -5982,20 +5974,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6011,20 +6003,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.98</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>98</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6040,20 +6032,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6069,20 +6061,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>134</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.08</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6098,20 +6090,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>1.8</v>
       </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -6127,11 +6119,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>6.33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
@@ -6147,20 +6139,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>1.63</v>
       </c>
-      <c r="F11">
-        <v>484</v>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -6176,11 +6168,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>6.33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>128</v>
@@ -6196,20 +6188,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>323</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
+      <c r="H13">
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -6225,20 +6217,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -6254,20 +6246,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>310</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>310</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -6283,20 +6275,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H16">
         <v>322</v>
-      </c>
-      <c r="G16">
-        <v>9.8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -6312,20 +6304,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>2.53</v>
       </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -6341,11 +6333,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
-        <v>8.14</v>
+      <c r="D18">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>128</v>
@@ -6361,20 +6353,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>2.15</v>
       </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -6390,11 +6382,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20">
-        <v>8.04</v>
+      <c r="D20">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>128</v>
@@ -6410,20 +6402,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>356</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -6439,20 +6431,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>343</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>343</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -6468,20 +6460,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>337</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.26</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>337</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -6497,20 +6489,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>357</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.87</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>357</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -6526,20 +6518,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <v>0.54</v>
       </c>
-      <c r="F25">
-        <v>402</v>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -6555,11 +6547,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
         <v>2.11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -6575,20 +6567,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>0.35</v>
       </c>
-      <c r="F27">
-        <v>397</v>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.09</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>397</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -6604,11 +6596,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
         <v>2.06</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -6624,20 +6616,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -6653,20 +6645,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -6682,20 +6674,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -6711,20 +6703,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -6762,19 +6754,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -6790,20 +6782,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -6819,11 +6811,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -6839,11 +6831,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -6859,20 +6851,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -6888,20 +6880,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>97</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -6917,20 +6909,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -6946,20 +6938,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>132</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -6975,20 +6967,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>0.44</v>
       </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7004,11 +6996,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>1.56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7024,20 +7016,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>0.35</v>
       </c>
-      <c r="F11">
-        <v>484</v>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.73</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7053,11 +7045,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>1.56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7073,20 +7065,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>323</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13">
         <v>9.83</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
+      <c r="H13">
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7102,20 +7094,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -7131,20 +7123,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>310</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.44</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>310</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -7160,20 +7152,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>321</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="H16" t="s">
-        <v>128</v>
+      <c r="H16">
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -7189,20 +7181,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>0.74</v>
       </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -7218,11 +7210,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>2.36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -7238,20 +7230,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>0.54</v>
       </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -7267,11 +7259,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>2.36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -7287,20 +7279,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>356</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -7316,20 +7308,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>343</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.44</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>343</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -7345,20 +7337,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>336</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -7374,20 +7366,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>356</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.84</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>356</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -7403,20 +7395,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>402</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -7432,11 +7424,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -7452,20 +7444,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>396</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -7481,11 +7473,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -7501,20 +7493,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -7530,20 +7522,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>237</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>237</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -7559,20 +7551,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -7588,20 +7580,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -7639,19 +7631,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -7667,20 +7659,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -7696,11 +7688,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -7716,11 +7708,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -7736,20 +7728,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -7765,20 +7757,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>97</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -7794,20 +7786,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -7823,20 +7815,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>132</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -7852,20 +7844,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -7881,11 +7873,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -7901,20 +7893,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>0.05</v>
       </c>
-      <c r="F11">
-        <v>483</v>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -7930,11 +7922,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>0.15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -7950,20 +7942,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H13">
         <v>322</v>
-      </c>
-      <c r="G13">
-        <v>9.8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -7979,20 +7971,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8008,20 +8000,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>309</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8037,20 +8029,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>321</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="H16" t="s">
-        <v>128</v>
+      <c r="H16">
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8066,20 +8058,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>0.11</v>
       </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8095,11 +8087,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>0.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8115,20 +8107,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>0.08</v>
       </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -8144,11 +8136,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>0.55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -8164,20 +8156,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>356</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -8193,20 +8185,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>341</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -8222,20 +8214,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>336</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -8251,20 +8243,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>355</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>355</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -8280,20 +8272,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>402</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -8309,11 +8301,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -8329,20 +8321,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>396</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.05</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -8358,11 +8350,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -8378,20 +8370,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -8407,20 +8399,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>237</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.21</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>237</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -8436,20 +8428,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -8465,20 +8457,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>
@@ -8516,19 +8508,19 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>63</v>
@@ -8544,20 +8536,20 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>277</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
       </c>
       <c r="G2">
         <v>8.43</v>
       </c>
-      <c r="H2" t="s">
-        <v>128</v>
+      <c r="H2">
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>128</v>
@@ -8573,11 +8565,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>127</v>
@@ -8593,11 +8585,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>127</v>
@@ -8613,20 +8605,20 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5">
         <v>4.14</v>
       </c>
-      <c r="H5" t="s">
-        <v>128</v>
+      <c r="H5">
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -8642,20 +8634,20 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>97</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
       </c>
       <c r="G6">
         <v>2.95</v>
       </c>
-      <c r="H6" t="s">
-        <v>128</v>
+      <c r="H6">
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -8671,20 +8663,20 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>91</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.77</v>
       </c>
-      <c r="H7" t="s">
-        <v>128</v>
+      <c r="H7">
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -8700,20 +8692,20 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>132</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
       <c r="G8">
         <v>4.02</v>
       </c>
-      <c r="H8" t="s">
-        <v>128</v>
+      <c r="H8">
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
@@ -8729,20 +8721,20 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>481</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
       </c>
       <c r="G9">
         <v>14.64</v>
       </c>
-      <c r="H9" t="s">
-        <v>128</v>
+      <c r="H9">
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>128</v>
@@ -8758,11 +8750,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>127</v>
@@ -8778,20 +8770,20 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>483</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
       </c>
       <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="H11" t="s">
-        <v>128</v>
+      <c r="H11">
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -8807,11 +8799,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>127</v>
@@ -8827,20 +8819,20 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>321</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
       </c>
       <c r="G13">
         <v>9.77</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
+      <c r="H13">
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>128</v>
@@ -8856,20 +8848,20 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14">
         <v>316</v>
-      </c>
-      <c r="G14">
-        <v>9.62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>128</v>
@@ -8885,20 +8877,20 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>309</v>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
       </c>
       <c r="G15">
         <v>9.41</v>
       </c>
-      <c r="H15" t="s">
-        <v>128</v>
+      <c r="H15">
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -8914,20 +8906,20 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>321</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16">
         <v>9.77</v>
       </c>
-      <c r="H16" t="s">
-        <v>128</v>
+      <c r="H16">
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>128</v>
@@ -8943,20 +8935,20 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>504</v>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
       </c>
       <c r="G17">
         <v>15.34</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
+      <c r="H17">
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -8972,11 +8964,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>127</v>
@@ -8992,20 +8984,20 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>508</v>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
       <c r="G19">
         <v>15.46</v>
       </c>
-      <c r="H19" t="s">
-        <v>128</v>
+      <c r="H19">
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -9021,11 +9013,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
       </c>
       <c r="I20" t="s">
         <v>127</v>
@@ -9041,20 +9033,20 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>356</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21">
         <v>10.84</v>
       </c>
-      <c r="H21" t="s">
-        <v>128</v>
+      <c r="H21">
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>128</v>
@@ -9070,20 +9062,20 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>341</v>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22">
         <v>10.38</v>
       </c>
-      <c r="H22" t="s">
-        <v>128</v>
+      <c r="H22">
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>128</v>
@@ -9099,20 +9091,20 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>336</v>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
       </c>
       <c r="G23">
         <v>10.23</v>
       </c>
-      <c r="H23" t="s">
-        <v>128</v>
+      <c r="H23">
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
@@ -9128,20 +9120,20 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>355</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>10.81</v>
       </c>
-      <c r="H24" t="s">
-        <v>128</v>
+      <c r="H24">
+        <v>355</v>
       </c>
       <c r="I24" t="s">
         <v>128</v>
@@ -9157,20 +9149,20 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>402</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
       </c>
       <c r="G25">
         <v>12.24</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
+      <c r="H25">
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
@@ -9186,11 +9178,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>127</v>
@@ -9206,20 +9198,20 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>395</v>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27">
         <v>12.02</v>
       </c>
-      <c r="H27" t="s">
-        <v>128</v>
+      <c r="H27">
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>128</v>
@@ -9235,11 +9227,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>127</v>
@@ -9255,20 +9247,20 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="H29">
         <v>272</v>
-      </c>
-      <c r="G29">
-        <v>8.28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>128</v>
@@ -9284,20 +9276,20 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>238</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7.25</v>
       </c>
-      <c r="H30" t="s">
-        <v>128</v>
+      <c r="H30">
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>128</v>
@@ -9313,20 +9305,20 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>231</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31">
         <v>7.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>128</v>
+      <c r="H31">
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>128</v>
@@ -9342,20 +9334,20 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>274</v>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
       </c>
       <c r="G32">
         <v>8.34</v>
       </c>
-      <c r="H32" t="s">
-        <v>128</v>
+      <c r="H32">
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>128</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>20220614</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220422</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-04-22 12:42:30.496561</t>
+    <t>2022-06-14 16:35:43.357984</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1204,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1221,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1238,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1255,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -30,12 +30,12 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,7 +72,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>20220614</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -108,10 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220614</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>O.Hensby</t>
   </si>
   <si>
     <t>index</t>
@@ -162,7 +162,7 @@
     <t>C:\IES Shared Content\Weather\HeathrowEWY.fwt</t>
   </si>
   <si>
-    <t>30.0 minutes</t>
+    <t>60.0 minutes</t>
   </si>
   <si>
     <t>31</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:35:43.357984</t>
+    <t>2022-06-14 16:38:15.377697</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +435,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,7 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -602,8 +610,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -624,7 +632,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -642,7 +650,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -660,7 +668,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -671,7 +679,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -682,7 +690,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -700,7 +708,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -718,7 +726,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,7 +744,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -754,7 +762,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -772,7 +780,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -790,7 +798,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1122,7 +1130,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1144,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1161,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1204,10 +1212,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1221,10 +1229,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1238,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1255,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1272,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1438,10 +1446,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -1467,10 +1475,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -1496,10 +1504,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H7">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -1554,10 +1562,10 @@
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.58</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -1603,10 +1611,10 @@
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.75</v>
+        <v>14.7</v>
       </c>
       <c r="H11">
-        <v>484.5</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -1652,10 +1660,10 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="H13">
-        <v>321.5</v>
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>129</v>
@@ -1681,10 +1689,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.6</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>315.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -1710,10 +1718,10 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.390000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="H15">
-        <v>308.5</v>
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -1739,10 +1747,10 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.74</v>
+        <v>9.77</v>
       </c>
       <c r="H16">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>129</v>
@@ -1768,10 +1776,10 @@
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.4</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -1817,10 +1825,10 @@
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>506.5</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -1895,10 +1903,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.49</v>
+        <v>10.38</v>
       </c>
       <c r="H22">
-        <v>344.5</v>
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -1924,10 +1932,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.21</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>335.5</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -1953,10 +1961,10 @@
         <v>129</v>
       </c>
       <c r="G24">
-        <v>10.81</v>
+        <v>10.78</v>
       </c>
       <c r="H24">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
@@ -1982,10 +1990,10 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.21</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -2031,10 +2039,10 @@
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.04</v>
+        <v>12.02</v>
       </c>
       <c r="H27">
-        <v>395.5</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -2080,7 +2088,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -2109,10 +2117,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.28</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -2138,10 +2146,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -2167,10 +2175,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.279999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -2315,10 +2323,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -2344,10 +2352,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -2373,10 +2381,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H7">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -2431,10 +2439,10 @@
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.6</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>479.5</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -2480,10 +2488,10 @@
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.75</v>
+        <v>14.7</v>
       </c>
       <c r="H11">
-        <v>484.5</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -2529,10 +2537,10 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="H13">
-        <v>321.5</v>
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>129</v>
@@ -2558,10 +2566,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.6</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>315.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -2587,10 +2595,10 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.390000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="H15">
-        <v>308.5</v>
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -2645,10 +2653,10 @@
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.39</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>505.5</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -2694,10 +2702,10 @@
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>506.5</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -2743,10 +2751,10 @@
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.81</v>
+        <v>10.78</v>
       </c>
       <c r="H21">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -2772,10 +2780,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.49</v>
+        <v>10.38</v>
       </c>
       <c r="H22">
-        <v>344.5</v>
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -2801,10 +2809,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.2</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -2830,10 +2838,10 @@
         <v>129</v>
       </c>
       <c r="G24">
-        <v>10.79</v>
+        <v>10.78</v>
       </c>
       <c r="H24">
-        <v>354.5</v>
+        <v>354</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
@@ -2859,10 +2867,10 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.18</v>
+        <v>12.21</v>
       </c>
       <c r="H25">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -2908,10 +2916,10 @@
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.04</v>
+        <v>12.02</v>
       </c>
       <c r="H27">
-        <v>395.5</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -2957,10 +2965,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
-        <v>272.5</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -2986,10 +2994,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.28</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -3015,10 +3023,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -3044,10 +3052,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.279999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -3123,10 +3131,10 @@
         <v>129</v>
       </c>
       <c r="G2">
-        <v>8.42</v>
+        <v>8.43</v>
       </c>
       <c r="H2">
-        <v>276.5</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>129</v>
@@ -3192,10 +3200,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.03</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>132.5</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -3221,10 +3229,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -3250,10 +3258,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -3279,10 +3287,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -3308,10 +3316,10 @@
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.6</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>479.5</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -3357,10 +3365,10 @@
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.75</v>
+        <v>14.7</v>
       </c>
       <c r="H11">
-        <v>484.5</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -3435,10 +3443,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.6</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>315.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -3464,10 +3472,10 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.390000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="H15">
-        <v>308.5</v>
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -3522,10 +3530,10 @@
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.39</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>505.5</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -3571,10 +3579,10 @@
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>506.5</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -3620,10 +3628,10 @@
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.79</v>
+        <v>10.78</v>
       </c>
       <c r="H21">
-        <v>354.5</v>
+        <v>354</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -3649,10 +3657,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.49</v>
+        <v>10.41</v>
       </c>
       <c r="H22">
-        <v>344.5</v>
+        <v>342</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -3678,10 +3686,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.18</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>334.5</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -3707,10 +3715,10 @@
         <v>129</v>
       </c>
       <c r="G24">
-        <v>10.79</v>
+        <v>10.75</v>
       </c>
       <c r="H24">
-        <v>354.5</v>
+        <v>353</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
@@ -3736,10 +3744,10 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.18</v>
+        <v>12.21</v>
       </c>
       <c r="H25">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -3785,10 +3793,10 @@
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.04</v>
+        <v>12.02</v>
       </c>
       <c r="H27">
-        <v>395.5</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -3834,10 +3842,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
-        <v>272.5</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -3863,10 +3871,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.28</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -3892,10 +3900,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -3921,10 +3929,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.300000000000001</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>272.5</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -4169,16 +4177,16 @@
         <v>129</v>
       </c>
       <c r="E2">
-        <v>11.14</v>
+        <v>11.17</v>
       </c>
       <c r="F2" t="s">
         <v>129</v>
       </c>
       <c r="G2">
-        <v>8.460000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="H2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>129</v>
@@ -4198,7 +4206,7 @@
         <v>129</v>
       </c>
       <c r="E3">
-        <v>27.43</v>
+        <v>27.25</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -4218,7 +4226,7 @@
         <v>129</v>
       </c>
       <c r="E4">
-        <v>27.9</v>
+        <v>27.65</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -4238,16 +4246,16 @@
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F5" t="s">
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133.5</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -4273,10 +4281,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -4302,10 +4310,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H7">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -4331,10 +4339,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="H8">
-        <v>133.5</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -4360,10 +4368,10 @@
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.61</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -4383,7 +4391,7 @@
         <v>129</v>
       </c>
       <c r="E10">
-        <v>26.07</v>
+        <v>26.04</v>
       </c>
       <c r="I10" t="s">
         <v>129</v>
@@ -4403,16 +4411,16 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <v>11.6</v>
+        <v>11.57</v>
       </c>
       <c r="F11" t="s">
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.75</v>
+        <v>14.73</v>
       </c>
       <c r="H11">
-        <v>484.5</v>
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -4432,7 +4440,7 @@
         <v>129</v>
       </c>
       <c r="E12">
-        <v>26.37</v>
+        <v>26.34</v>
       </c>
       <c r="I12" t="s">
         <v>129</v>
@@ -4458,7 +4466,7 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.859999999999999</v>
+        <v>9.86</v>
       </c>
       <c r="H13">
         <v>324</v>
@@ -4481,16 +4489,16 @@
         <v>130</v>
       </c>
       <c r="E14">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="s">
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.68</v>
+        <v>9.65</v>
       </c>
       <c r="H14">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -4545,10 +4553,10 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.83</v>
+        <v>9.8</v>
       </c>
       <c r="H16">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I16" t="s">
         <v>129</v>
@@ -4568,7 +4576,7 @@
         <v>129</v>
       </c>
       <c r="E17">
-        <v>12.88</v>
+        <v>12.91</v>
       </c>
       <c r="F17" t="s">
         <v>129</v>
@@ -4597,7 +4605,7 @@
         <v>129</v>
       </c>
       <c r="E18">
-        <v>28.46</v>
+        <v>28.31</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
@@ -4617,16 +4625,16 @@
         <v>129</v>
       </c>
       <c r="E19">
-        <v>13.51</v>
+        <v>13.43</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.43</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -4646,7 +4654,7 @@
         <v>129</v>
       </c>
       <c r="E20">
-        <v>28.68</v>
+        <v>28.61</v>
       </c>
       <c r="I20" t="s">
         <v>129</v>
@@ -4666,16 +4674,16 @@
         <v>130</v>
       </c>
       <c r="E21">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.9</v>
+        <v>10.84</v>
       </c>
       <c r="H21">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -4695,16 +4703,16 @@
         <v>130</v>
       </c>
       <c r="E22">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="F22" t="s">
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.58</v>
+        <v>10.5</v>
       </c>
       <c r="H22">
-        <v>347.5</v>
+        <v>345</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -4724,16 +4732,16 @@
         <v>130</v>
       </c>
       <c r="E23">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.21</v>
+        <v>10.26</v>
       </c>
       <c r="H23">
-        <v>335.5</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -4753,16 +4761,16 @@
         <v>130</v>
       </c>
       <c r="E24">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
       </c>
       <c r="G24">
-        <v>10.87</v>
+        <v>10.9</v>
       </c>
       <c r="H24">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
@@ -4782,16 +4790,16 @@
         <v>129</v>
       </c>
       <c r="E25">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="F25" t="s">
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.21</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -4811,7 +4819,7 @@
         <v>129</v>
       </c>
       <c r="E26">
-        <v>17.3</v>
+        <v>17.75</v>
       </c>
       <c r="I26" t="s">
         <v>129</v>
@@ -4831,16 +4839,16 @@
         <v>129</v>
       </c>
       <c r="E27">
-        <v>5.3</v>
+        <v>5.23</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="H27">
-        <v>396.5</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -4860,7 +4868,7 @@
         <v>129</v>
       </c>
       <c r="E28">
-        <v>17.72</v>
+        <v>17.75</v>
       </c>
       <c r="I28" t="s">
         <v>129</v>
@@ -4886,10 +4894,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.33</v>
+        <v>8.31</v>
       </c>
       <c r="H29">
-        <v>273.5</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -4915,10 +4923,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.34</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -4944,10 +4952,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>231.5</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -4973,10 +4981,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.26</v>
+        <v>8.31</v>
       </c>
       <c r="H32">
-        <v>271.5</v>
+        <v>273</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -5046,7 +5054,7 @@
         <v>129</v>
       </c>
       <c r="E2">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="F2" t="s">
         <v>129</v>
@@ -5075,7 +5083,7 @@
         <v>129</v>
       </c>
       <c r="E3">
-        <v>13.95</v>
+        <v>14.08</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -5095,7 +5103,7 @@
         <v>129</v>
       </c>
       <c r="E4">
-        <v>14.48</v>
+        <v>14.68</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -5121,10 +5129,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133.5</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -5150,10 +5158,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -5179,10 +5187,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="H7">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -5208,10 +5216,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="H8">
-        <v>133.5</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -5231,16 +5239,16 @@
         <v>129</v>
       </c>
       <c r="E9">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.61</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -5260,7 +5268,7 @@
         <v>129</v>
       </c>
       <c r="E10">
-        <v>12.49</v>
+        <v>12.57</v>
       </c>
       <c r="I10" t="s">
         <v>129</v>
@@ -5280,16 +5288,16 @@
         <v>129</v>
       </c>
       <c r="E11">
-        <v>4.02</v>
+        <v>3.92</v>
       </c>
       <c r="F11" t="s">
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.75</v>
+        <v>14.73</v>
       </c>
       <c r="H11">
-        <v>484.5</v>
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -5309,7 +5317,7 @@
         <v>129</v>
       </c>
       <c r="E12">
-        <v>12.75</v>
+        <v>12.62</v>
       </c>
       <c r="I12" t="s">
         <v>129</v>
@@ -5335,10 +5343,10 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.880000000000001</v>
+        <v>9.86</v>
       </c>
       <c r="H13">
-        <v>324.5</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
         <v>129</v>
@@ -5364,10 +5372,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.65</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -5393,10 +5401,10 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
+        <v>9.47</v>
       </c>
       <c r="H15">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -5422,7 +5430,7 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -5445,16 +5453,16 @@
         <v>129</v>
       </c>
       <c r="E17">
-        <v>5.38</v>
+        <v>5.34</v>
       </c>
       <c r="F17" t="s">
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.37</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -5474,7 +5482,7 @@
         <v>129</v>
       </c>
       <c r="E18">
-        <v>15.94</v>
+        <v>15.74</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
@@ -5494,16 +5502,16 @@
         <v>129</v>
       </c>
       <c r="E19">
-        <v>5.05</v>
+        <v>5.15</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.43</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -5523,7 +5531,7 @@
         <v>129</v>
       </c>
       <c r="E20">
-        <v>16.11</v>
+        <v>15.84</v>
       </c>
       <c r="I20" t="s">
         <v>129</v>
@@ -5549,10 +5557,10 @@
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.87</v>
+        <v>10.84</v>
       </c>
       <c r="H21">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -5578,10 +5586,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.53</v>
+        <v>10.47</v>
       </c>
       <c r="H22">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -5607,10 +5615,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.21</v>
+        <v>10.26</v>
       </c>
       <c r="H23">
-        <v>335.5</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -5636,10 +5644,10 @@
         <v>129</v>
       </c>
       <c r="G24">
-        <v>10.85</v>
+        <v>10.9</v>
       </c>
       <c r="H24">
-        <v>356.5</v>
+        <v>358</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
@@ -5659,16 +5667,16 @@
         <v>130</v>
       </c>
       <c r="E25">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="F25" t="s">
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.21</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>401</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -5688,7 +5696,7 @@
         <v>129</v>
       </c>
       <c r="E26">
-        <v>5.81</v>
+        <v>5.68</v>
       </c>
       <c r="I26" t="s">
         <v>129</v>
@@ -5708,16 +5716,16 @@
         <v>130</v>
       </c>
       <c r="E27">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.05</v>
+        <v>12.09</v>
       </c>
       <c r="H27">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -5763,10 +5771,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.33</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
-        <v>273.5</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -5792,10 +5800,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -5821,10 +5829,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -5850,10 +5858,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.26</v>
+        <v>8.31</v>
       </c>
       <c r="H32">
-        <v>271.5</v>
+        <v>273</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -5929,10 +5937,10 @@
         <v>129</v>
       </c>
       <c r="G2">
-        <v>8.449999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="H2">
-        <v>277.5</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>129</v>
@@ -5952,7 +5960,7 @@
         <v>129</v>
       </c>
       <c r="E3">
-        <v>6.64</v>
+        <v>6.89</v>
       </c>
       <c r="I3" t="s">
         <v>129</v>
@@ -5972,7 +5980,7 @@
         <v>129</v>
       </c>
       <c r="E4">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
@@ -5998,10 +6006,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -6027,10 +6035,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -6056,10 +6064,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="H7">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -6085,10 +6093,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="H8">
-        <v>133.5</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -6108,16 +6116,16 @@
         <v>130</v>
       </c>
       <c r="E9">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.61</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -6137,7 +6145,7 @@
         <v>129</v>
       </c>
       <c r="E10">
-        <v>6.11</v>
+        <v>6.33</v>
       </c>
       <c r="I10" t="s">
         <v>129</v>
@@ -6157,16 +6165,16 @@
         <v>130</v>
       </c>
       <c r="E11">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="F11" t="s">
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.75</v>
+        <v>14.73</v>
       </c>
       <c r="H11">
-        <v>484.5</v>
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -6186,7 +6194,7 @@
         <v>129</v>
       </c>
       <c r="E12">
-        <v>6.28</v>
+        <v>6.33</v>
       </c>
       <c r="I12" t="s">
         <v>129</v>
@@ -6212,10 +6220,10 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.880000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="H13">
-        <v>324.5</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>129</v>
@@ -6241,10 +6249,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.630000000000001</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>316.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -6299,7 +6307,7 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -6322,16 +6330,16 @@
         <v>130</v>
       </c>
       <c r="E17">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="F17" t="s">
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.37</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -6351,7 +6359,7 @@
         <v>129</v>
       </c>
       <c r="E18">
-        <v>8.02</v>
+        <v>8.14</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
@@ -6371,16 +6379,16 @@
         <v>130</v>
       </c>
       <c r="E19">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.43</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -6400,7 +6408,7 @@
         <v>129</v>
       </c>
       <c r="E20">
-        <v>8.17</v>
+        <v>8.04</v>
       </c>
       <c r="I20" t="s">
         <v>129</v>
@@ -6426,10 +6434,10 @@
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.85</v>
+        <v>10.84</v>
       </c>
       <c r="H21">
-        <v>356.5</v>
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -6455,10 +6463,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.52</v>
+        <v>10.44</v>
       </c>
       <c r="H22">
-        <v>345.5</v>
+        <v>343</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -6484,10 +6492,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.23</v>
+        <v>10.26</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -6513,10 +6521,10 @@
         <v>129</v>
       </c>
       <c r="G24">
-        <v>10.85</v>
+        <v>10.87</v>
       </c>
       <c r="H24">
-        <v>356.5</v>
+        <v>357</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
@@ -6536,16 +6544,16 @@
         <v>130</v>
       </c>
       <c r="E25">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="F25" t="s">
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.24</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -6565,7 +6573,7 @@
         <v>130</v>
       </c>
       <c r="E26">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="I26" t="s">
         <v>130</v>
@@ -6585,16 +6593,16 @@
         <v>130</v>
       </c>
       <c r="E27">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.05</v>
+        <v>12.09</v>
       </c>
       <c r="H27">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -6614,7 +6622,7 @@
         <v>130</v>
       </c>
       <c r="E28">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="I28" t="s">
         <v>130</v>
@@ -6640,10 +6648,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.31</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -6669,10 +6677,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>240.5</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -6698,10 +6706,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -6727,10 +6735,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.26</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>271.5</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -6800,7 +6808,7 @@
         <v>130</v>
       </c>
       <c r="E2">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="F2" t="s">
         <v>129</v>
@@ -6829,7 +6837,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="I3" t="s">
         <v>130</v>
@@ -6849,7 +6857,7 @@
         <v>130</v>
       </c>
       <c r="E4">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="I4" t="s">
         <v>130</v>
@@ -6875,10 +6883,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -6904,10 +6912,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -6962,10 +6970,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="H8">
-        <v>133.5</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -6985,16 +6993,16 @@
         <v>130</v>
       </c>
       <c r="E9">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.58</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -7014,7 +7022,7 @@
         <v>130</v>
       </c>
       <c r="E10">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
@@ -7034,16 +7042,16 @@
         <v>130</v>
       </c>
       <c r="E11">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F11" t="s">
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.76</v>
+        <v>14.73</v>
       </c>
       <c r="H11">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -7063,7 +7071,7 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I12" t="s">
         <v>130</v>
@@ -7118,10 +7126,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.630000000000001</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>316.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -7147,10 +7155,10 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.42</v>
+        <v>9.44</v>
       </c>
       <c r="H15">
-        <v>309.5</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -7205,10 +7213,10 @@
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.39</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>505.5</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -7228,7 +7236,7 @@
         <v>130</v>
       </c>
       <c r="E18">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="I18" t="s">
         <v>130</v>
@@ -7248,16 +7256,16 @@
         <v>130</v>
       </c>
       <c r="E19">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>506.5</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -7277,7 +7285,7 @@
         <v>130</v>
       </c>
       <c r="E20">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="I20" t="s">
         <v>130</v>
@@ -7332,10 +7340,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.52</v>
+        <v>10.44</v>
       </c>
       <c r="H22">
-        <v>345.5</v>
+        <v>343</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -7361,10 +7369,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.21</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>335.5</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -7419,10 +7427,10 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.24</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -7517,10 +7525,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
-        <v>272.5</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -7546,10 +7554,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.31</v>
+        <v>7.21</v>
       </c>
       <c r="H30">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -7575,10 +7583,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -7604,10 +7612,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.25</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -7677,7 +7685,7 @@
         <v>130</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F2" t="s">
         <v>129</v>
@@ -7706,7 +7714,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I3" t="s">
         <v>130</v>
@@ -7726,7 +7734,7 @@
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I4" t="s">
         <v>130</v>
@@ -7752,10 +7760,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -7781,10 +7789,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -7839,10 +7847,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="H8">
-        <v>133.5</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -7868,10 +7876,10 @@
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.58</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -7891,7 +7899,7 @@
         <v>130</v>
       </c>
       <c r="E10">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
@@ -7917,10 +7925,10 @@
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.76</v>
+        <v>14.7</v>
       </c>
       <c r="H11">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -7940,7 +7948,7 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I12" t="s">
         <v>130</v>
@@ -7966,10 +7974,10 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.82</v>
+        <v>9.8</v>
       </c>
       <c r="H13">
-        <v>322.5</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
         <v>129</v>
@@ -7995,10 +8003,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.6</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>315.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -8024,10 +8032,10 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.42</v>
+        <v>9.41</v>
       </c>
       <c r="H15">
-        <v>309.5</v>
+        <v>309</v>
       </c>
       <c r="I15" t="s">
         <v>129</v>
@@ -8053,10 +8061,10 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.76</v>
+        <v>9.77</v>
       </c>
       <c r="H16">
-        <v>320.5</v>
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>129</v>
@@ -8076,16 +8084,16 @@
         <v>130</v>
       </c>
       <c r="E17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F17" t="s">
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.39</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>505.5</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -8105,7 +8113,7 @@
         <v>130</v>
       </c>
       <c r="E18">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="s">
         <v>130</v>
@@ -8131,10 +8139,10 @@
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>506.5</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -8180,10 +8188,10 @@
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.81</v>
+        <v>10.84</v>
       </c>
       <c r="H21">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -8209,10 +8217,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.49</v>
+        <v>10.38</v>
       </c>
       <c r="H22">
-        <v>344.5</v>
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -8238,10 +8246,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.21</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>335.5</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -8296,10 +8304,10 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.24</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -8345,10 +8353,10 @@
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="H27">
-        <v>395.5</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -8394,10 +8402,10 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.300000000000001</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
-        <v>272.5</v>
+        <v>272</v>
       </c>
       <c r="I29" t="s">
         <v>129</v>
@@ -8423,10 +8431,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.28</v>
+        <v>7.21</v>
       </c>
       <c r="H30">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -8452,10 +8460,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -8481,10 +8489,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.26</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>271.5</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>
@@ -8629,10 +8637,10 @@
         <v>129</v>
       </c>
       <c r="G5">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -8658,10 +8666,10 @@
         <v>129</v>
       </c>
       <c r="G6">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="H6">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
         <v>129</v>
@@ -8687,10 +8695,10 @@
         <v>129</v>
       </c>
       <c r="G7">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H7">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
@@ -8716,10 +8724,10 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="H8">
-        <v>132.5</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>129</v>
@@ -8745,10 +8753,10 @@
         <v>129</v>
       </c>
       <c r="G9">
-        <v>14.58</v>
+        <v>14.64</v>
       </c>
       <c r="H9">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -8794,10 +8802,10 @@
         <v>129</v>
       </c>
       <c r="G11">
-        <v>14.76</v>
+        <v>14.7</v>
       </c>
       <c r="H11">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
@@ -8843,10 +8851,10 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="H13">
-        <v>321.5</v>
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>129</v>
@@ -8872,10 +8880,10 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.6</v>
+        <v>9.62</v>
       </c>
       <c r="H14">
-        <v>315.5</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>129</v>
@@ -8930,10 +8938,10 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.76</v>
+        <v>9.77</v>
       </c>
       <c r="H16">
-        <v>320.5</v>
+        <v>321</v>
       </c>
       <c r="I16" t="s">
         <v>129</v>
@@ -8959,10 +8967,10 @@
         <v>129</v>
       </c>
       <c r="G17">
-        <v>15.4</v>
+        <v>15.34</v>
       </c>
       <c r="H17">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I17" t="s">
         <v>129</v>
@@ -9008,10 +9016,10 @@
         <v>129</v>
       </c>
       <c r="G19">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="H19">
-        <v>506.5</v>
+        <v>508</v>
       </c>
       <c r="I19" t="s">
         <v>129</v>
@@ -9057,10 +9065,10 @@
         <v>129</v>
       </c>
       <c r="G21">
-        <v>10.81</v>
+        <v>10.84</v>
       </c>
       <c r="H21">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I21" t="s">
         <v>129</v>
@@ -9086,10 +9094,10 @@
         <v>129</v>
       </c>
       <c r="G22">
-        <v>10.49</v>
+        <v>10.38</v>
       </c>
       <c r="H22">
-        <v>344.5</v>
+        <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>129</v>
@@ -9115,10 +9123,10 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>10.21</v>
+        <v>10.23</v>
       </c>
       <c r="H23">
-        <v>335.5</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -9173,10 +9181,10 @@
         <v>129</v>
       </c>
       <c r="G25">
-        <v>12.16</v>
+        <v>12.24</v>
       </c>
       <c r="H25">
-        <v>399.5</v>
+        <v>402</v>
       </c>
       <c r="I25" t="s">
         <v>129</v>
@@ -9222,10 +9230,10 @@
         <v>129</v>
       </c>
       <c r="G27">
-        <v>12.04</v>
+        <v>12.02</v>
       </c>
       <c r="H27">
-        <v>395.5</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -9271,7 +9279,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.279999999999999</v>
+        <v>8.28</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -9300,10 +9308,10 @@
         <v>129</v>
       </c>
       <c r="G30">
-        <v>7.28</v>
+        <v>7.25</v>
       </c>
       <c r="H30">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
         <v>129</v>
@@ -9329,10 +9337,10 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I31" t="s">
         <v>129</v>
@@ -9358,10 +9366,10 @@
         <v>129</v>
       </c>
       <c r="G32">
-        <v>8.26</v>
+        <v>8.34</v>
       </c>
       <c r="H32">
-        <v>271.5</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>129</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,10 +72,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
-    <t>20220614</t>
+    <t>jovyan</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -111,7 +108,10 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>O.Hensby</t>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
   </si>
   <si>
     <t>index</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:38:15.377697</t>
+    <t>2022-06-15 10:33:15.637501</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +435,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -609,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,7 +624,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -650,7 +642,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -668,7 +660,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -679,7 +671,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -690,7 +682,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -708,7 +700,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -726,7 +718,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -744,7 +736,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -762,7 +754,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -780,7 +772,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -798,7 +790,7 @@
     <tableColumn id="8" name="Criterion B (Hours Operative T &gt; 26 Deg. C)"/>
     <tableColumn id="9" name="TM59 (Pass/Fail)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1130,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1144,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1161,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1178,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1195,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1212,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1229,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1246,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1263,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1280,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1297,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1689,7 +1681,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -2088,7 +2080,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -2566,7 +2558,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -2965,7 +2957,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -3443,7 +3435,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -3842,7 +3834,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -4466,7 +4458,7 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H13">
         <v>324</v>
@@ -4553,7 +4545,7 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -5343,7 +5335,7 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H13">
         <v>324</v>
@@ -5372,7 +5364,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -5401,7 +5393,7 @@
         <v>129</v>
       </c>
       <c r="G15">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H15">
         <v>311</v>
@@ -5430,7 +5422,7 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -5771,7 +5763,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -6249,7 +6241,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -6307,7 +6299,7 @@
         <v>129</v>
       </c>
       <c r="G16">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16">
         <v>322</v>
@@ -6359,7 +6351,7 @@
         <v>129</v>
       </c>
       <c r="E18">
-        <v>8.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
@@ -6408,7 +6400,7 @@
         <v>129</v>
       </c>
       <c r="E20">
-        <v>8.04</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I20" t="s">
         <v>129</v>
@@ -6648,7 +6640,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -7126,7 +7118,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -7525,7 +7517,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -7974,7 +7966,7 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>9.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H13">
         <v>322</v>
@@ -8003,7 +7995,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -8402,7 +8394,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>
@@ -8880,7 +8872,7 @@
         <v>129</v>
       </c>
       <c r="G14">
-        <v>9.62</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H14">
         <v>316</v>
@@ -9279,7 +9271,7 @@
         <v>129</v>
       </c>
       <c r="G29">
-        <v>8.28</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H29">
         <v>272</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 10:33:15.637501</t>
+    <t>2022-06-15 12:25:25.530147</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 12:25:25.530147</t>
+    <t>2022-06-15 15:57:18.086952</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,9 +601,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1204,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1221,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1238,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1255,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1289,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220615</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 15:57:18.086952</t>
+    <t>2022-06-15 17:01:48.328528</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,10 +601,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="131">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,43 +72,43 @@
     <t>10</t>
   </si>
   <si>
-    <t>20220615</t>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
   </si>
   <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
+    <t>20220711</t>
   </si>
   <si>
     <t>jovyan</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 17:01:48.328528</t>
+    <t>2022-07-11 15:53:11.703390</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -601,9 +601,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
+    <tableColumn id="2" name="sheet_name"/>
     <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1119,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1150,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1167,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1184,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1201,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1218,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1235,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1252,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1286,10 +1286,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-07-11 15:53:11.703390</t>
+    <t>2022-07-11 16:10:21.462194</t>
   </si>
   <si>
     <t>2021.4.0.0</t>

--- a/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59/TM59__TestJob1.xlsx
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-07-11 16:10:21.462194</t>
+    <t>2022-07-11 16:26:06.486076</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
